--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1597991.601928278</v>
+        <v>1597589.712612017</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>241946.9810785729</v>
+        <v>241946.9810785743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736558</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
@@ -674,7 +674,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>54.16915444596561</v>
       </c>
       <c r="U2" t="n">
-        <v>241.2500982199615</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -795,13 +795,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>179.6815500328073</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>70.49852764175995</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>65.79123926981563</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>149.5625113513812</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>300.8492868577997</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>91.14315390063669</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -987,7 +987,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>107.2095229805418</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>72.19595476953774</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1041,7 +1041,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>57.4780033108353</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>60.30335528247657</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>36.76631580369249</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -1196,10 +1196,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>130.1075471085585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>49.84414512756178</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>174.3572224783882</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.81065050096356</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280.8016135680806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>268.8129305257623</v>
+        <v>268.8129305257622</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>259.7942345702902</v>
       </c>
       <c r="E11" t="n">
-        <v>281.5363721401959</v>
+        <v>281.5363721401957</v>
       </c>
       <c r="F11" t="n">
-        <v>300.7081882281731</v>
+        <v>300.7081882281729</v>
       </c>
       <c r="G11" t="n">
-        <v>302.6414561255956</v>
+        <v>302.6414561255954</v>
       </c>
       <c r="H11" t="n">
-        <v>220.1915711039055</v>
+        <v>18.99695331486471</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.7875362485335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>143.0349923683875</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>224.3079908082596</v>
       </c>
       <c r="W11" t="n">
-        <v>206.9285226383491</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>268.9083485189633</v>
+        <v>268.9083485189631</v>
       </c>
       <c r="Y11" t="n">
-        <v>280.3049463151621</v>
+        <v>280.3049463151619</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>142.898455384193</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
         <v>160.0866360314548</v>
@@ -1458,7 +1458,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>50.72160464352817</v>
       </c>
       <c r="G12" t="n">
         <v>127.4412149769483</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.4183244427777</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>58.61831928817818</v>
+        <v>58.61831928817806</v>
       </c>
       <c r="D13" t="n">
-        <v>42.23968368575657</v>
+        <v>42.23968368575645</v>
       </c>
       <c r="E13" t="n">
-        <v>41.18743354153602</v>
+        <v>41.1874335415359</v>
       </c>
       <c r="F13" t="n">
-        <v>41.65435786972233</v>
+        <v>41.6543578697222</v>
       </c>
       <c r="G13" t="n">
-        <v>57.92906059107017</v>
+        <v>57.92906059107004</v>
       </c>
       <c r="H13" t="n">
-        <v>48.47742821376059</v>
+        <v>48.47742821376046</v>
       </c>
       <c r="I13" t="n">
-        <v>33.45952339858994</v>
+        <v>33.45952339858981</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.72507301700725</v>
+        <v>38.72507301700712</v>
       </c>
       <c r="S13" t="n">
-        <v>102.271174415591</v>
+        <v>102.2711744155909</v>
       </c>
       <c r="T13" t="n">
-        <v>121.5456730977196</v>
+        <v>121.5456730977195</v>
       </c>
       <c r="U13" t="n">
-        <v>175.0168465610328</v>
+        <v>175.0168465610327</v>
       </c>
       <c r="V13" t="n">
-        <v>148.8264608424033</v>
+        <v>148.8264608424032</v>
       </c>
       <c r="W13" t="n">
-        <v>173.9933469130166</v>
+        <v>173.9933469130164</v>
       </c>
       <c r="X13" t="n">
-        <v>119.6384489088197</v>
+        <v>119.6384489088195</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.08240283466654</v>
+        <v>84.5007272774471</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280.8016135680806</v>
+        <v>280.8016135680805</v>
       </c>
       <c r="C14" t="n">
-        <v>129.0335414720613</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>259.7942345702902</v>
       </c>
       <c r="E14" t="n">
-        <v>281.5363721401959</v>
+        <v>281.5363721401957</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>300.7081882281729</v>
       </c>
       <c r="G14" t="n">
-        <v>302.6414561255956</v>
+        <v>302.6414561255954</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.78753624853363</v>
+        <v>22.96173757673597</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>76.05519506119126</v>
+        <v>76.05519506119113</v>
       </c>
       <c r="T14" t="n">
-        <v>112.8138662515406</v>
+        <v>112.8138662515405</v>
       </c>
       <c r="U14" t="n">
-        <v>143.0349923683876</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>224.3079908082597</v>
+        <v>224.3079908082596</v>
       </c>
       <c r="W14" t="n">
-        <v>249.6080902862167</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>268.9083485189633</v>
+        <v>268.9083485189631</v>
       </c>
       <c r="Y14" t="n">
-        <v>280.3049463151621</v>
+        <v>280.3049463151619</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>62.9324744176026</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1740,7 +1740,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>216.3098444776729</v>
+        <v>192.8710152675808</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.4183244427777</v>
+        <v>72.41832444277757</v>
       </c>
       <c r="C16" t="n">
-        <v>58.61831928817818</v>
+        <v>58.61831928817806</v>
       </c>
       <c r="D16" t="n">
-        <v>42.23968368575657</v>
+        <v>42.23968368575645</v>
       </c>
       <c r="E16" t="n">
-        <v>41.18743354153602</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>41.65435786972233</v>
+        <v>41.6543578697222</v>
       </c>
       <c r="G16" t="n">
-        <v>57.92906059107017</v>
+        <v>57.92906059107004</v>
       </c>
       <c r="H16" t="n">
-        <v>48.47742821376059</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>33.45952339858994</v>
+        <v>33.45952339858981</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.72507301700725</v>
+        <v>29.95902094208582</v>
       </c>
       <c r="S16" t="n">
-        <v>102.271174415591</v>
+        <v>102.2711744155909</v>
       </c>
       <c r="T16" t="n">
-        <v>121.5456730977196</v>
+        <v>121.5456730977195</v>
       </c>
       <c r="U16" t="n">
-        <v>175.0168465610328</v>
+        <v>175.0168465610327</v>
       </c>
       <c r="V16" t="n">
-        <v>50.39554701218174</v>
+        <v>148.8264608424032</v>
       </c>
       <c r="W16" t="n">
-        <v>173.9933469130166</v>
+        <v>173.9933469130164</v>
       </c>
       <c r="X16" t="n">
-        <v>119.6384489088197</v>
+        <v>119.6384489088195</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.5133166648874</v>
+        <v>110.5133166648872</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.4367213710097</v>
+        <v>219.4367213710092</v>
       </c>
       <c r="C17" t="n">
         <v>207.448038328691</v>
@@ -1862,7 +1862,7 @@
         <v>158.8266789068341</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4226440514622709</v>
+        <v>0.4226440514622425</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.6903028641199</v>
+        <v>14.69030286411987</v>
       </c>
       <c r="T17" t="n">
-        <v>51.44897405446926</v>
+        <v>51.44897405446923</v>
       </c>
       <c r="U17" t="n">
-        <v>81.67010017131622</v>
+        <v>81.67010017131619</v>
       </c>
       <c r="V17" t="n">
         <v>162.9430986111884</v>
       </c>
       <c r="W17" t="n">
-        <v>188.2431980891453</v>
+        <v>188.2431980891446</v>
       </c>
       <c r="X17" t="n">
         <v>207.5434563218919</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.9400541180907</v>
+        <v>218.9400541180906</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,13 +1974,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>104.1729973695797</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>211.184873356893</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.05343224570635</v>
+        <v>11.05343224570632</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.90628221851964</v>
+        <v>40.90628221851961</v>
       </c>
       <c r="T19" t="n">
-        <v>60.18078090064827</v>
+        <v>60.18078090064824</v>
       </c>
       <c r="U19" t="n">
         <v>113.6519543639614</v>
       </c>
       <c r="V19" t="n">
-        <v>87.46156864533194</v>
+        <v>87.46156864533191</v>
       </c>
       <c r="W19" t="n">
         <v>112.6284547159452</v>
       </c>
       <c r="X19" t="n">
-        <v>58.27355671174831</v>
+        <v>58.27355671174828</v>
       </c>
       <c r="Y19" t="n">
-        <v>49.148424467816</v>
+        <v>49.14842446781597</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.4367213710093</v>
+        <v>219.4367213710092</v>
       </c>
       <c r="C20" t="n">
         <v>207.448038328691</v>
@@ -2099,7 +2099,7 @@
         <v>158.8266789068341</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4226440514622709</v>
+        <v>0.4226440514622425</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.6903028641199</v>
+        <v>14.69030286411987</v>
       </c>
       <c r="T20" t="n">
-        <v>51.44897405446926</v>
+        <v>51.44897405446923</v>
       </c>
       <c r="U20" t="n">
-        <v>81.67010017131622</v>
+        <v>81.67010017131619</v>
       </c>
       <c r="V20" t="n">
         <v>162.9430986111884</v>
@@ -2147,7 +2147,7 @@
         <v>207.5434563218919</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.9400541180907</v>
+        <v>218.9400541180906</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.19999292735351</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
@@ -2220,7 +2220,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>156.2774546529271</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.05343224570635</v>
+        <v>11.05343224570632</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.90628221851964</v>
+        <v>40.90628221851961</v>
       </c>
       <c r="T22" t="n">
-        <v>60.18078090064827</v>
+        <v>60.18078090064824</v>
       </c>
       <c r="U22" t="n">
         <v>113.6519543639614</v>
       </c>
       <c r="V22" t="n">
-        <v>87.46156864533194</v>
+        <v>87.46156864533191</v>
       </c>
       <c r="W22" t="n">
         <v>112.6284547159452</v>
       </c>
       <c r="X22" t="n">
-        <v>58.27355671174831</v>
+        <v>58.27355671174828</v>
       </c>
       <c r="Y22" t="n">
-        <v>49.148424467816</v>
+        <v>49.14842446781597</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.4367213710093</v>
+        <v>219.4367213710092</v>
       </c>
       <c r="C23" t="n">
         <v>207.448038328691</v>
@@ -2336,7 +2336,7 @@
         <v>158.8266789068341</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4226440514622709</v>
+        <v>0.4226440514622425</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.6903028641199</v>
+        <v>14.69030286411987</v>
       </c>
       <c r="T23" t="n">
-        <v>51.44897405446926</v>
+        <v>51.44897405446923</v>
       </c>
       <c r="U23" t="n">
-        <v>81.67010017131622</v>
+        <v>81.67010017131619</v>
       </c>
       <c r="V23" t="n">
         <v>162.9430986111884</v>
@@ -2384,7 +2384,7 @@
         <v>207.5434563218919</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.9400541180907</v>
+        <v>218.9400541180906</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>54.82499521359387</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>44.25963324674888</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.05343224570635</v>
+        <v>11.05343224570632</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.90628221851964</v>
+        <v>40.90628221851961</v>
       </c>
       <c r="T25" t="n">
-        <v>60.18078090064827</v>
+        <v>60.18078090064824</v>
       </c>
       <c r="U25" t="n">
         <v>113.6519543639614</v>
       </c>
       <c r="V25" t="n">
-        <v>87.46156864533194</v>
+        <v>87.46156864533191</v>
       </c>
       <c r="W25" t="n">
         <v>112.6284547159452</v>
       </c>
       <c r="X25" t="n">
-        <v>58.27355671174831</v>
+        <v>58.27355671174828</v>
       </c>
       <c r="Y25" t="n">
-        <v>49.148424467816</v>
+        <v>49.14842446781597</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.6729386146303</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C26" t="n">
-        <v>264.684255572312</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
-        <v>255.66555961684</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F26" t="n">
-        <v>296.5795132747227</v>
+        <v>234.074436716906</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721452</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H26" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.9265201077409</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
-        <v>93.65283175128312</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
         <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
-        <v>220.1793158548094</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X26" t="n">
-        <v>264.7796735655129</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617117</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>143.2597570679445</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
         <v>160.0866360314548</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932735</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472783</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230622</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808567</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627198</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761981</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031023</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513958</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355689</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214063</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T28" t="n">
-        <v>117.4169981442693</v>
+        <v>117.4169981442692</v>
       </c>
       <c r="U28" t="n">
         <v>170.8881716075824</v>
@@ -2773,13 +2773,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W28" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2801,16 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G29" t="n">
-        <v>298.5127811721452</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H29" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508323</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774086</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149372</v>
+        <v>66.21509657304689</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327663</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655129</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y29" t="n">
-        <v>254.5851484617776</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326535</v>
       </c>
       <c r="I30" t="n">
-        <v>53.13297117133602</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472779</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808562</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627193</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031019</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X31" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.7898580267162</v>
+        <v>248.7898580267161</v>
       </c>
       <c r="C32" t="n">
-        <v>236.801174984398</v>
+        <v>236.8011749843979</v>
       </c>
       <c r="D32" t="n">
-        <v>227.7824790289259</v>
+        <v>227.7824790289258</v>
       </c>
       <c r="E32" t="n">
-        <v>249.5246165988315</v>
+        <v>249.5246165988314</v>
       </c>
       <c r="F32" t="n">
-        <v>268.6964326868086</v>
+        <v>268.6964326868085</v>
       </c>
       <c r="G32" t="n">
-        <v>270.6297005842312</v>
+        <v>270.629700584231</v>
       </c>
       <c r="H32" t="n">
-        <v>188.1798155625411</v>
+        <v>188.179815562541</v>
       </c>
       <c r="I32" t="n">
-        <v>29.77578070716922</v>
+        <v>29.77578070716913</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>44.04343951982685</v>
+        <v>44.04343951982676</v>
       </c>
       <c r="T32" t="n">
-        <v>80.80211071017621</v>
+        <v>80.80211071017612</v>
       </c>
       <c r="U32" t="n">
-        <v>111.0232368270232</v>
+        <v>111.0232368270231</v>
       </c>
       <c r="V32" t="n">
         <v>192.2962352668953</v>
@@ -3092,10 +3092,10 @@
         <v>217.5963347448522</v>
       </c>
       <c r="X32" t="n">
-        <v>236.8965929775989</v>
+        <v>236.8965929775988</v>
       </c>
       <c r="Y32" t="n">
-        <v>248.2931907737976</v>
+        <v>248.2931907737975</v>
       </c>
     </row>
     <row r="33">
@@ -3120,13 +3120,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914449</v>
       </c>
       <c r="H33" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>53.1329711713362</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.40656890141329</v>
+        <v>40.40656890141321</v>
       </c>
       <c r="C34" t="n">
-        <v>26.60656374681378</v>
+        <v>26.60656374681369</v>
       </c>
       <c r="D34" t="n">
-        <v>10.22792814439217</v>
+        <v>10.22792814439208</v>
       </c>
       <c r="E34" t="n">
-        <v>9.175678000171615</v>
+        <v>9.17567800017153</v>
       </c>
       <c r="F34" t="n">
-        <v>9.642602328357924</v>
+        <v>9.642602328357839</v>
       </c>
       <c r="G34" t="n">
-        <v>25.91730504970576</v>
+        <v>25.91730504970567</v>
       </c>
       <c r="H34" t="n">
-        <v>16.46567267239618</v>
+        <v>16.4656726723961</v>
       </c>
       <c r="I34" t="n">
-        <v>1.447767857225529</v>
+        <v>1.447767857225443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.713317475642839</v>
+        <v>6.713317475642754</v>
       </c>
       <c r="S34" t="n">
-        <v>70.25941887422658</v>
+        <v>70.2594188742265</v>
       </c>
       <c r="T34" t="n">
-        <v>89.53391755635522</v>
+        <v>89.53391755635514</v>
       </c>
       <c r="U34" t="n">
-        <v>143.0050910196684</v>
+        <v>143.0050910196683</v>
       </c>
       <c r="V34" t="n">
-        <v>116.8147053010389</v>
+        <v>116.8147053010388</v>
       </c>
       <c r="W34" t="n">
         <v>141.9815913716521</v>
       </c>
       <c r="X34" t="n">
-        <v>87.62669336745526</v>
+        <v>87.62669336745518</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.50156112352295</v>
+        <v>78.50156112352286</v>
       </c>
     </row>
     <row r="35">
@@ -3354,7 +3354,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G36" t="n">
         <v>127.4412149769483</v>
@@ -3393,7 +3393,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>136.7060008318836</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
         <v>186.7982527956746</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>157.8252483534483</v>
+        <v>143.2597570679441</v>
       </c>
       <c r="C39" t="n">
         <v>160.0866360314548</v>
@@ -3645,7 +3645,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>181.3723269554799</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
         <v>190.5961130869169</v>
@@ -3740,25 +3740,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C41" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380638</v>
       </c>
       <c r="D41" t="n">
-        <v>202.9666599825917</v>
+        <v>202.9666599825918</v>
       </c>
       <c r="E41" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F41" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404745</v>
       </c>
       <c r="G41" t="n">
-        <v>245.8138815378969</v>
+        <v>245.813881537897</v>
       </c>
       <c r="H41" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I41" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835035</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349266</v>
       </c>
       <c r="T41" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384202</v>
       </c>
       <c r="U41" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068898</v>
       </c>
       <c r="V41" t="n">
-        <v>167.4804162205611</v>
+        <v>167.4804162205612</v>
       </c>
       <c r="W41" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985181</v>
       </c>
       <c r="X41" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312647</v>
       </c>
       <c r="Y41" t="n">
         <v>223.4773717274634</v>
@@ -3828,7 +3828,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G42" t="n">
         <v>127.4412149769483</v>
@@ -3870,7 +3870,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
         <v>216.3098444776729</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507911</v>
       </c>
       <c r="C43" t="n">
-        <v>1.790744700479564</v>
+        <v>1.790744700479593</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371576</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>45.44359982789237</v>
+        <v>45.4435998278924</v>
       </c>
       <c r="T43" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002104</v>
       </c>
       <c r="U43" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V43" t="n">
-        <v>91.99888625470467</v>
+        <v>91.9988862547047</v>
       </c>
       <c r="W43" t="n">
-        <v>117.1657723253179</v>
+        <v>117.165772325318</v>
       </c>
       <c r="X43" t="n">
-        <v>62.81087432112105</v>
+        <v>62.81087432112108</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718876</v>
       </c>
     </row>
     <row r="44">
@@ -4043,7 +4043,7 @@
         <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274634</v>
+        <v>223.4773717274625</v>
       </c>
     </row>
     <row r="45">
@@ -4059,7 +4059,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541868</v>
       </c>
       <c r="E45" t="n">
         <v>145.5577298436975</v>
@@ -4122,7 +4122,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.0306218014135</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="46">
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.15020349354</v>
+        <v>1597.823439122931</v>
       </c>
       <c r="C2" t="n">
-        <v>870.2164448263471</v>
+        <v>1597.823439122931</v>
       </c>
       <c r="D2" t="n">
-        <v>870.2164448263471</v>
+        <v>1597.823439122931</v>
       </c>
       <c r="E2" t="n">
-        <v>870.2164448263471</v>
+        <v>1203.037719229038</v>
       </c>
       <c r="F2" t="n">
-        <v>456.0652541365175</v>
+        <v>788.8865285392081</v>
       </c>
       <c r="G2" t="n">
-        <v>39.96126759070545</v>
+        <v>372.7825419933961</v>
       </c>
       <c r="H2" t="n">
-        <v>39.96126759070545</v>
+        <v>39.96126759070542</v>
       </c>
       <c r="I2" t="n">
-        <v>39.96126759070545</v>
+        <v>39.96126759070542</v>
       </c>
       <c r="J2" t="n">
         <v>111.9598118635111</v>
@@ -4340,40 +4340,40 @@
         <v>1093.224723246328</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.556081934044</v>
+        <v>1370.469644919847</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.560666406878</v>
+        <v>1675.474229392681</v>
       </c>
       <c r="P2" t="n">
-        <v>1903.631125848735</v>
+        <v>1903.631125848734</v>
       </c>
       <c r="Q2" t="n">
-        <v>1998.063379535272</v>
+        <v>1998.063379535271</v>
       </c>
       <c r="R2" t="n">
-        <v>1907.425093031125</v>
+        <v>1907.425093031124</v>
       </c>
       <c r="S2" t="n">
-        <v>1720.19611766148</v>
+        <v>1907.425093031124</v>
       </c>
       <c r="T2" t="n">
-        <v>1495.837171392491</v>
+        <v>1852.708775408937</v>
       </c>
       <c r="U2" t="n">
-        <v>1252.15020349354</v>
+        <v>1597.823439122931</v>
       </c>
       <c r="V2" t="n">
-        <v>1252.15020349354</v>
+        <v>1597.823439122931</v>
       </c>
       <c r="W2" t="n">
-        <v>1252.15020349354</v>
+        <v>1597.823439122931</v>
       </c>
       <c r="X2" t="n">
-        <v>1252.15020349354</v>
+        <v>1597.823439122931</v>
       </c>
       <c r="Y2" t="n">
-        <v>1252.15020349354</v>
+        <v>1597.823439122931</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>757.5703553337042</v>
+        <v>919.2740280927495</v>
       </c>
       <c r="C3" t="n">
         <v>757.5703553337042</v>
@@ -4401,13 +4401,13 @@
         <v>208.2814103539464</v>
       </c>
       <c r="H3" t="n">
-        <v>108.3435529006445</v>
+        <v>108.3435529006444</v>
       </c>
       <c r="I3" t="n">
-        <v>39.96126759070545</v>
+        <v>39.96126759070542</v>
       </c>
       <c r="J3" t="n">
-        <v>39.96126759070545</v>
+        <v>39.96126759070542</v>
       </c>
       <c r="K3" t="n">
         <v>269.4518201508941</v>
@@ -4416,43 +4416,43 @@
         <v>635.2736653210097</v>
       </c>
       <c r="M3" t="n">
-        <v>953.5711125305472</v>
+        <v>1120.307018831236</v>
       </c>
       <c r="N3" t="n">
-        <v>1448.091798965527</v>
+        <v>1605.86342875112</v>
       </c>
       <c r="O3" t="n">
-        <v>1840.291749749678</v>
+        <v>1998.063379535271</v>
       </c>
       <c r="P3" t="n">
-        <v>1840.291749749678</v>
+        <v>1998.063379535271</v>
       </c>
       <c r="Q3" t="n">
-        <v>1998.063379535272</v>
+        <v>1998.063379535271</v>
       </c>
       <c r="R3" t="n">
-        <v>1938.279110630218</v>
+        <v>1938.279110630217</v>
       </c>
       <c r="S3" t="n">
-        <v>1785.479623642958</v>
+        <v>1785.479623642957</v>
       </c>
       <c r="T3" t="n">
-        <v>1596.794519808943</v>
+        <v>1596.794519808942</v>
       </c>
       <c r="U3" t="n">
-        <v>1378.299727407253</v>
+        <v>1378.299727407252</v>
       </c>
       <c r="V3" t="n">
-        <v>1196.8032122226</v>
+        <v>1149.904104855586</v>
       </c>
       <c r="W3" t="n">
-        <v>955.4873434559097</v>
+        <v>1078.69347087401</v>
       </c>
       <c r="X3" t="n">
-        <v>757.5703553337042</v>
+        <v>1078.69347087401</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.5703553337042</v>
+        <v>1078.69347087401</v>
       </c>
     </row>
     <row r="4">
@@ -4471,28 +4471,28 @@
         <v>572.0205128366379</v>
       </c>
       <c r="E4" t="n">
-        <v>505.5647155943998</v>
+        <v>420.0114985979567</v>
       </c>
       <c r="F4" t="n">
-        <v>353.084060620177</v>
+        <v>268.9382548086827</v>
       </c>
       <c r="G4" t="n">
-        <v>184.164311988027</v>
+        <v>100.0185061765327</v>
       </c>
       <c r="H4" t="n">
-        <v>184.164311988027</v>
+        <v>100.0185061765327</v>
       </c>
       <c r="I4" t="n">
-        <v>39.96126759070545</v>
+        <v>100.0185061765327</v>
       </c>
       <c r="J4" t="n">
-        <v>39.96126759070545</v>
+        <v>39.96126759070542</v>
       </c>
       <c r="K4" t="n">
-        <v>73.56545533534886</v>
+        <v>73.56545533534883</v>
       </c>
       <c r="L4" t="n">
-        <v>174.1725347356084</v>
+        <v>174.1725347356083</v>
       </c>
       <c r="M4" t="n">
         <v>292.1660408632101</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.560482641061</v>
+        <v>860.9617606798363</v>
       </c>
       <c r="C5" t="n">
-        <v>933.6267239738681</v>
+        <v>860.9617606798363</v>
       </c>
       <c r="D5" t="n">
-        <v>629.7385554306361</v>
+        <v>860.9617606798363</v>
       </c>
       <c r="E5" t="n">
-        <v>234.952835536743</v>
+        <v>466.1760407859431</v>
       </c>
       <c r="F5" t="n">
-        <v>224.8420488873174</v>
+        <v>52.0248500961134</v>
       </c>
       <c r="G5" t="n">
-        <v>212.7784663819094</v>
+        <v>39.96126759070543</v>
       </c>
       <c r="H5" t="n">
-        <v>212.7784663819094</v>
+        <v>39.96126759070543</v>
       </c>
       <c r="I5" t="n">
-        <v>39.96126759070545</v>
+        <v>39.96126759070543</v>
       </c>
       <c r="J5" t="n">
         <v>111.9598118635111</v>
@@ -4577,16 +4577,16 @@
         <v>1093.224723246328</v>
       </c>
       <c r="N5" t="n">
-        <v>1471.556081934044</v>
+        <v>1370.469644919847</v>
       </c>
       <c r="O5" t="n">
-        <v>1675.474229392682</v>
+        <v>1675.474229392681</v>
       </c>
       <c r="P5" t="n">
-        <v>1903.631125848735</v>
+        <v>1903.631125848734</v>
       </c>
       <c r="Q5" t="n">
-        <v>1998.063379535272</v>
+        <v>1998.063379535271</v>
       </c>
       <c r="R5" t="n">
         <v>1907.425093031125</v>
@@ -4598,19 +4598,19 @@
         <v>1907.425093031125</v>
       </c>
       <c r="U5" t="n">
-        <v>1652.53975674512</v>
+        <v>1652.539756745119</v>
       </c>
       <c r="V5" t="n">
-        <v>1315.560482641061</v>
+        <v>1315.56048264106</v>
       </c>
       <c r="W5" t="n">
-        <v>1315.560482641061</v>
+        <v>953.0255524986612</v>
       </c>
       <c r="X5" t="n">
-        <v>1315.560482641061</v>
+        <v>860.9617606798363</v>
       </c>
       <c r="Y5" t="n">
-        <v>1315.560482641061</v>
+        <v>860.9617606798363</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>759.9993385613388</v>
+        <v>790.5455281160341</v>
       </c>
       <c r="C6" t="n">
-        <v>598.2956658022936</v>
+        <v>628.8418553569888</v>
       </c>
       <c r="D6" t="n">
-        <v>598.2956658022936</v>
+        <v>490.0032183472009</v>
       </c>
       <c r="E6" t="n">
-        <v>451.2676558591648</v>
+        <v>342.9752084040721</v>
       </c>
       <c r="F6" t="n">
-        <v>316.5738578090392</v>
+        <v>208.2814103539464</v>
       </c>
       <c r="G6" t="n">
         <v>208.2814103539464</v>
       </c>
       <c r="H6" t="n">
-        <v>108.3435529006445</v>
+        <v>108.3435529006444</v>
       </c>
       <c r="I6" t="n">
-        <v>39.96126759070545</v>
+        <v>39.96126759070543</v>
       </c>
       <c r="J6" t="n">
-        <v>100.2154141238116</v>
+        <v>39.96126759070543</v>
       </c>
       <c r="K6" t="n">
-        <v>100.2154141238116</v>
+        <v>269.4518201508941</v>
       </c>
       <c r="L6" t="n">
-        <v>466.0372592939273</v>
+        <v>269.4518201508941</v>
       </c>
       <c r="M6" t="n">
-        <v>951.0706128041537</v>
+        <v>754.4851736611206</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.99587968983</v>
+        <v>1249.0058600961</v>
       </c>
       <c r="O6" t="n">
-        <v>1538.195830473981</v>
+        <v>1641.205810880251</v>
       </c>
       <c r="P6" t="n">
-        <v>1840.291749749678</v>
+        <v>1943.301730155948</v>
       </c>
       <c r="Q6" t="n">
-        <v>1998.063379535272</v>
+        <v>1998.063379535271</v>
       </c>
       <c r="R6" t="n">
-        <v>1998.063379535272</v>
+        <v>1938.279110630217</v>
       </c>
       <c r="S6" t="n">
-        <v>1998.063379535272</v>
+        <v>1865.3539037923</v>
       </c>
       <c r="T6" t="n">
-        <v>1998.063379535272</v>
+        <v>1676.668799958285</v>
       </c>
       <c r="U6" t="n">
-        <v>1779.568587133582</v>
+        <v>1458.174007556596</v>
       </c>
       <c r="V6" t="n">
-        <v>1551.172964581916</v>
+        <v>1229.77838500493</v>
       </c>
       <c r="W6" t="n">
-        <v>1309.857095815226</v>
+        <v>988.4625162382396</v>
       </c>
       <c r="X6" t="n">
-        <v>1111.940107693021</v>
+        <v>790.5455281160341</v>
       </c>
       <c r="Y6" t="n">
-        <v>919.4187813425998</v>
+        <v>790.5455281160341</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.5862513677064</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="C7" t="n">
-        <v>191.9702818293866</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="D7" t="n">
-        <v>191.9702818293866</v>
+        <v>418.9486196644006</v>
       </c>
       <c r="E7" t="n">
-        <v>39.96126759070545</v>
+        <v>266.9396054257194</v>
       </c>
       <c r="F7" t="n">
-        <v>39.96126759070545</v>
+        <v>266.9396054257194</v>
       </c>
       <c r="G7" t="n">
-        <v>39.96126759070545</v>
+        <v>98.01985679356937</v>
       </c>
       <c r="H7" t="n">
-        <v>39.96126759070545</v>
+        <v>98.01985679356937</v>
       </c>
       <c r="I7" t="n">
-        <v>39.96126759070545</v>
+        <v>98.01985679356937</v>
       </c>
       <c r="J7" t="n">
-        <v>39.96126759070545</v>
+        <v>39.96126759070543</v>
       </c>
       <c r="K7" t="n">
-        <v>73.56545533534886</v>
+        <v>73.56545533534884</v>
       </c>
       <c r="L7" t="n">
-        <v>174.1725347356084</v>
+        <v>174.1725347356083</v>
       </c>
       <c r="M7" t="n">
         <v>292.1660408632101</v>
@@ -4747,28 +4747,28 @@
         <v>572.0205128366379</v>
       </c>
       <c r="R7" t="n">
-        <v>422.4987314510161</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="S7" t="n">
-        <v>422.4987314510161</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="T7" t="n">
-        <v>422.4987314510161</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="U7" t="n">
-        <v>422.4987314510161</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="V7" t="n">
-        <v>361.5862513677064</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="W7" t="n">
-        <v>361.5862513677064</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="X7" t="n">
-        <v>361.5862513677064</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.5862513677064</v>
+        <v>572.0205128366379</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>446.1323839232255</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="C8" t="n">
-        <v>64.19862525603281</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="D8" t="n">
-        <v>64.19862525603281</v>
+        <v>458.984345149926</v>
       </c>
       <c r="E8" t="n">
         <v>64.19862525603281</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>1913.983829690315</v>
+        <v>1786.207850455166</v>
       </c>
       <c r="U8" t="n">
-        <v>1659.098493404309</v>
+        <v>1531.32251416916</v>
       </c>
       <c r="V8" t="n">
-        <v>1322.119219300251</v>
+        <v>1194.343240065101</v>
       </c>
       <c r="W8" t="n">
-        <v>959.5842891578518</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="X8" t="n">
-        <v>577.5541486793452</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="Y8" t="n">
-        <v>446.1323839232255</v>
+        <v>831.8083099227024</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>803.3644951809738</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>641.6608224219285</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>502.8221854121406</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>355.7941754690118</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>221.1003774188862</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>92.37187744217073</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>92.37187744217073</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4884,19 +4884,19 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="L9" t="n">
-        <v>554.9422248568675</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M9" t="n">
-        <v>1039.975578367094</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.241224490216</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1943.441175274367</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
         <v>1943.441175274367</v>
@@ -4908,25 +4908,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>1712.510642623821</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U9" t="n">
-        <v>1712.510642623821</v>
+        <v>1822.933743753217</v>
       </c>
       <c r="V9" t="n">
-        <v>1712.510642623821</v>
+        <v>1594.538121201551</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1353.222252434861</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>1155.305264312656</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>962.7839379622347</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>406.5711638999306</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>406.5711638999306</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>406.5711638999306</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>254.5621496612494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>556.0929452855523</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>406.5711638999306</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>406.5711638999306</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>406.5711638999306</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>406.5711638999306</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V10" t="n">
-        <v>406.5711638999306</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W10" t="n">
-        <v>406.5711638999306</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>406.5711638999306</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>406.5711638999306</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1437.465869660321</v>
+        <v>1559.069054538889</v>
       </c>
       <c r="C11" t="n">
-        <v>1165.937657008036</v>
+        <v>1287.540841886604</v>
       </c>
       <c r="D11" t="n">
-        <v>1165.937657008036</v>
+        <v>1025.122423128735</v>
       </c>
       <c r="E11" t="n">
-        <v>881.5574831290501</v>
+        <v>740.7422492497495</v>
       </c>
       <c r="F11" t="n">
-        <v>577.8118384541278</v>
+        <v>436.9966045748274</v>
       </c>
       <c r="G11" t="n">
-        <v>272.1133979232232</v>
+        <v>131.298164043923</v>
       </c>
       <c r="H11" t="n">
-        <v>49.69766953543987</v>
+        <v>112.1093223117363</v>
       </c>
       <c r="I11" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J11" t="n">
-        <v>121.6962138082455</v>
+        <v>229.9046894574564</v>
       </c>
       <c r="K11" t="n">
-        <v>470.045061502239</v>
+        <v>578.25353715145</v>
       </c>
       <c r="L11" t="n">
-        <v>817.9304345871853</v>
+        <v>926.1389102363962</v>
       </c>
       <c r="M11" t="n">
         <v>1319.378076489484</v>
@@ -5054,37 +5054,37 @@
         <v>1697.7094351772</v>
       </c>
       <c r="O11" t="n">
-        <v>2110.922495299244</v>
+        <v>2034.711959933695</v>
       </c>
       <c r="P11" t="n">
-        <v>2339.079391755298</v>
+        <v>2262.868856389748</v>
       </c>
       <c r="Q11" t="n">
-        <v>2484.883476771994</v>
+        <v>2465.509585725496</v>
       </c>
       <c r="R11" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="S11" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="T11" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="U11" t="n">
-        <v>2484.883476771994</v>
+        <v>2340.403686500894</v>
       </c>
       <c r="V11" t="n">
-        <v>2484.883476771994</v>
+        <v>2113.829958411743</v>
       </c>
       <c r="W11" t="n">
-        <v>2275.864767036287</v>
+        <v>2113.829958411743</v>
       </c>
       <c r="X11" t="n">
-        <v>2004.240172572688</v>
+        <v>1842.205363948144</v>
       </c>
       <c r="Y11" t="n">
-        <v>1721.103863163433</v>
+        <v>1559.069054538889</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>860.628144727545</v>
+        <v>845.5505760717301</v>
       </c>
       <c r="C12" t="n">
-        <v>698.9244719684997</v>
+        <v>683.8469033126848</v>
       </c>
       <c r="D12" t="n">
-        <v>560.0858349587118</v>
+        <v>545.0082663028969</v>
       </c>
       <c r="E12" t="n">
-        <v>413.0578250155829</v>
+        <v>397.9802563597681</v>
       </c>
       <c r="F12" t="n">
-        <v>278.3640269654572</v>
+        <v>346.7463122753962</v>
       </c>
       <c r="G12" t="n">
-        <v>149.6355269887418</v>
+        <v>218.0178122986808</v>
       </c>
       <c r="H12" t="n">
-        <v>49.69766953543987</v>
+        <v>118.0799548453789</v>
       </c>
       <c r="I12" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J12" t="n">
-        <v>49.69766953543987</v>
+        <v>109.951816068546</v>
       </c>
       <c r="K12" t="n">
-        <v>270.6951321230874</v>
+        <v>339.4423686287346</v>
       </c>
       <c r="L12" t="n">
-        <v>636.516977293203</v>
+        <v>705.2642137988503</v>
       </c>
       <c r="M12" t="n">
-        <v>1121.550330803429</v>
+        <v>1190.297567309077</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.815976926551</v>
+        <v>1701.563213432199</v>
       </c>
       <c r="O12" t="n">
-        <v>2025.015927710702</v>
+        <v>2093.76316421635</v>
       </c>
       <c r="P12" t="n">
-        <v>2327.1118469864</v>
+        <v>2395.859083492047</v>
       </c>
       <c r="Q12" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R12" t="n">
-        <v>2425.099207866939</v>
+        <v>2425.099207866938</v>
       </c>
       <c r="S12" t="n">
-        <v>2272.29972087968</v>
+        <v>2272.299720879678</v>
       </c>
       <c r="T12" t="n">
-        <v>2083.614617045665</v>
+        <v>2083.614617045664</v>
       </c>
       <c r="U12" t="n">
-        <v>1865.119824643975</v>
+        <v>1865.119824643974</v>
       </c>
       <c r="V12" t="n">
-        <v>1636.724202092309</v>
+        <v>1636.724202092308</v>
       </c>
       <c r="W12" t="n">
-        <v>1395.408333325619</v>
+        <v>1395.408333325618</v>
       </c>
       <c r="X12" t="n">
-        <v>1197.491345203414</v>
+        <v>1197.491345203412</v>
       </c>
       <c r="Y12" t="n">
-        <v>1004.970018852992</v>
+        <v>1004.970018852991</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.5318176047468</v>
+        <v>376.531817604746</v>
       </c>
       <c r="C13" t="n">
-        <v>317.3213940813346</v>
+        <v>317.3213940813337</v>
       </c>
       <c r="D13" t="n">
-        <v>274.6550469240048</v>
+        <v>274.655046924004</v>
       </c>
       <c r="E13" t="n">
-        <v>233.051578700231</v>
+        <v>233.0515787002304</v>
       </c>
       <c r="F13" t="n">
-        <v>190.9764697409155</v>
+        <v>190.976469740915</v>
       </c>
       <c r="G13" t="n">
-        <v>132.4622671236729</v>
+        <v>132.4622671236725</v>
       </c>
       <c r="H13" t="n">
-        <v>83.49516791785402</v>
+        <v>83.49516791785381</v>
       </c>
       <c r="I13" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J13" t="n">
-        <v>99.0440456466813</v>
+        <v>99.04404564668138</v>
       </c>
       <c r="K13" t="n">
-        <v>240.8567090405354</v>
+        <v>240.8567090405357</v>
       </c>
       <c r="L13" t="n">
-        <v>449.6722640900057</v>
+        <v>449.6722640900061</v>
       </c>
       <c r="M13" t="n">
-        <v>675.8742458668181</v>
+        <v>675.8742458668188</v>
       </c>
       <c r="N13" t="n">
-        <v>902.5050632656291</v>
+        <v>902.5050632656298</v>
       </c>
       <c r="O13" t="n">
         <v>1109.17718541053</v>
       </c>
       <c r="P13" t="n">
-        <v>1280.354144787878</v>
+        <v>1280.354144787879</v>
       </c>
       <c r="Q13" t="n">
-        <v>1350.792172183569</v>
+        <v>1350.792172183571</v>
       </c>
       <c r="R13" t="n">
-        <v>1311.675936812855</v>
+        <v>1311.675936812856</v>
       </c>
       <c r="S13" t="n">
-        <v>1208.37172023145</v>
+        <v>1208.371720231451</v>
       </c>
       <c r="T13" t="n">
-        <v>1085.598313062036</v>
+        <v>1085.598313062038</v>
       </c>
       <c r="U13" t="n">
-        <v>908.8136195660435</v>
+        <v>908.8136195660452</v>
       </c>
       <c r="V13" t="n">
-        <v>758.4838611393735</v>
+        <v>758.4838611393753</v>
       </c>
       <c r="W13" t="n">
-        <v>582.7330056716801</v>
+        <v>582.733005671682</v>
       </c>
       <c r="X13" t="n">
-        <v>461.8860875819632</v>
+        <v>461.8860875819653</v>
       </c>
       <c r="Y13" t="n">
-        <v>449.6816402742193</v>
+        <v>376.531817604746</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>832.5248472994665</v>
+        <v>1229.134021698056</v>
       </c>
       <c r="C14" t="n">
-        <v>702.1879367216268</v>
+        <v>1229.134021698056</v>
       </c>
       <c r="D14" t="n">
-        <v>702.1879367216268</v>
+        <v>966.7156029401872</v>
       </c>
       <c r="E14" t="n">
-        <v>417.8077628426411</v>
+        <v>682.3354290612015</v>
       </c>
       <c r="F14" t="n">
-        <v>417.8077628426411</v>
+        <v>378.5897843862795</v>
       </c>
       <c r="G14" t="n">
-        <v>112.1093223117365</v>
+        <v>72.89134385537517</v>
       </c>
       <c r="H14" t="n">
-        <v>112.1093223117365</v>
+        <v>72.89134385537517</v>
       </c>
       <c r="I14" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J14" t="n">
-        <v>229.9046894574563</v>
+        <v>229.9046894574564</v>
       </c>
       <c r="K14" t="n">
-        <v>578.2535371514498</v>
+        <v>470.0450615022392</v>
       </c>
       <c r="L14" t="n">
-        <v>926.138910236396</v>
+        <v>817.9304345871853</v>
       </c>
       <c r="M14" t="n">
-        <v>1319.378076489484</v>
+        <v>1211.169600840273</v>
       </c>
       <c r="N14" t="n">
-        <v>1749.081266507359</v>
+        <v>1640.872790858146</v>
       </c>
       <c r="O14" t="n">
-        <v>2054.085850980193</v>
+        <v>2054.085850980191</v>
       </c>
       <c r="P14" t="n">
-        <v>2390.451223085457</v>
+        <v>2390.451223085455</v>
       </c>
       <c r="Q14" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R14" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="S14" t="n">
-        <v>2408.060047417255</v>
+        <v>2408.060047417254</v>
       </c>
       <c r="T14" t="n">
         <v>2294.106647163173</v>
       </c>
       <c r="U14" t="n">
-        <v>2149.626856892075</v>
+        <v>2294.106647163173</v>
       </c>
       <c r="V14" t="n">
-        <v>1923.053128802924</v>
+        <v>2067.532919074021</v>
       </c>
       <c r="W14" t="n">
-        <v>1670.923744675432</v>
+        <v>2067.532919074021</v>
       </c>
       <c r="X14" t="n">
-        <v>1399.299150211833</v>
+        <v>1795.908324610422</v>
       </c>
       <c r="Y14" t="n">
-        <v>1116.162840802578</v>
+        <v>1512.772015201168</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>845.5505760717315</v>
+        <v>929.0104300374838</v>
       </c>
       <c r="C15" t="n">
-        <v>683.8469033126862</v>
+        <v>767.3067572784386</v>
       </c>
       <c r="D15" t="n">
-        <v>545.0082663028983</v>
+        <v>628.4681202686506</v>
       </c>
       <c r="E15" t="n">
         <v>481.4401103255219</v>
@@ -5352,55 +5352,55 @@
         <v>118.0799548453789</v>
       </c>
       <c r="I15" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J15" t="n">
-        <v>49.69766953543987</v>
+        <v>109.951816068546</v>
       </c>
       <c r="K15" t="n">
-        <v>270.6951321230874</v>
+        <v>339.4423686287346</v>
       </c>
       <c r="L15" t="n">
-        <v>636.516977293203</v>
+        <v>705.2642137988503</v>
       </c>
       <c r="M15" t="n">
-        <v>1121.550330803429</v>
+        <v>1190.297567309077</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.815976926551</v>
+        <v>1701.563213432199</v>
       </c>
       <c r="O15" t="n">
-        <v>2025.015927710702</v>
+        <v>2093.76316421635</v>
       </c>
       <c r="P15" t="n">
-        <v>2327.1118469864</v>
+        <v>2395.859083492047</v>
       </c>
       <c r="Q15" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R15" t="n">
-        <v>2425.099207866939</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="S15" t="n">
-        <v>2272.29972087968</v>
+        <v>2332.083989784733</v>
       </c>
       <c r="T15" t="n">
-        <v>2083.614617045665</v>
+        <v>2143.398885950718</v>
       </c>
       <c r="U15" t="n">
-        <v>1865.119824643975</v>
+        <v>1948.579678609727</v>
       </c>
       <c r="V15" t="n">
-        <v>1636.724202092309</v>
+        <v>1720.184056058061</v>
       </c>
       <c r="W15" t="n">
-        <v>1395.408333325619</v>
+        <v>1478.868187291371</v>
       </c>
       <c r="X15" t="n">
-        <v>1197.491345203414</v>
+        <v>1280.951199169166</v>
       </c>
       <c r="Y15" t="n">
-        <v>1004.970018852992</v>
+        <v>1088.429872818745</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.5318176047469</v>
+        <v>285.9612501751536</v>
       </c>
       <c r="C16" t="n">
-        <v>317.3213940813345</v>
+        <v>226.7508266517414</v>
       </c>
       <c r="D16" t="n">
-        <v>274.6550469240046</v>
+        <v>184.0844794944117</v>
       </c>
       <c r="E16" t="n">
-        <v>233.0515787002309</v>
+        <v>184.0844794944117</v>
       </c>
       <c r="F16" t="n">
-        <v>190.9764697409154</v>
+        <v>142.0093705350963</v>
       </c>
       <c r="G16" t="n">
-        <v>132.4622671236728</v>
+        <v>83.49516791785381</v>
       </c>
       <c r="H16" t="n">
-        <v>83.49516791785399</v>
+        <v>83.49516791785381</v>
       </c>
       <c r="I16" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J16" t="n">
-        <v>99.04404564668152</v>
+        <v>99.04404564668138</v>
       </c>
       <c r="K16" t="n">
-        <v>240.8567090405356</v>
+        <v>240.8567090405357</v>
       </c>
       <c r="L16" t="n">
         <v>449.6722640900059</v>
       </c>
       <c r="M16" t="n">
-        <v>675.8742458668183</v>
+        <v>675.8742458668185</v>
       </c>
       <c r="N16" t="n">
-        <v>902.5050632656294</v>
+        <v>902.5050632656297</v>
       </c>
       <c r="O16" t="n">
         <v>1109.17718541053</v>
       </c>
       <c r="P16" t="n">
-        <v>1280.354144787878</v>
+        <v>1280.354144787879</v>
       </c>
       <c r="Q16" t="n">
-        <v>1350.792172183569</v>
+        <v>1350.792172183571</v>
       </c>
       <c r="R16" t="n">
-        <v>1311.675936812854</v>
+        <v>1320.530534868332</v>
       </c>
       <c r="S16" t="n">
-        <v>1208.371720231449</v>
+        <v>1217.226318286927</v>
       </c>
       <c r="T16" t="n">
-        <v>1085.598313062036</v>
+        <v>1094.452911117514</v>
       </c>
       <c r="U16" t="n">
-        <v>908.8136195660429</v>
+        <v>917.6682176215212</v>
       </c>
       <c r="V16" t="n">
-        <v>857.9090266244452</v>
+        <v>767.3384591948513</v>
       </c>
       <c r="W16" t="n">
-        <v>682.1581711567517</v>
+        <v>591.587603727158</v>
       </c>
       <c r="X16" t="n">
-        <v>561.3112530670348</v>
+        <v>470.7406856374413</v>
       </c>
       <c r="Y16" t="n">
-        <v>449.6816402742194</v>
+        <v>359.1110728446259</v>
       </c>
     </row>
     <row r="17">
@@ -5507,58 +5507,58 @@
         <v>210.555571513517</v>
       </c>
       <c r="H17" t="n">
-        <v>50.12458271873509</v>
+        <v>50.12458271873503</v>
       </c>
       <c r="I17" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J17" t="n">
-        <v>290.6559327325569</v>
+        <v>121.6962138082455</v>
       </c>
       <c r="K17" t="n">
-        <v>530.7963047773396</v>
+        <v>361.8365858530283</v>
       </c>
       <c r="L17" t="n">
-        <v>878.6816778622858</v>
+        <v>709.7219589379745</v>
       </c>
       <c r="M17" t="n">
         <v>1271.920844115374</v>
       </c>
       <c r="N17" t="n">
-        <v>1777.164607834972</v>
+        <v>1688.330023232257</v>
       </c>
       <c r="O17" t="n">
-        <v>2082.169192307806</v>
+        <v>1993.334607705091</v>
       </c>
       <c r="P17" t="n">
-        <v>2310.326088763859</v>
+        <v>2221.491504161144</v>
       </c>
       <c r="Q17" t="n">
-        <v>2404.758342450396</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R17" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="S17" t="n">
-        <v>2470.044787010256</v>
+        <v>2470.044787010255</v>
       </c>
       <c r="T17" t="n">
-        <v>2418.076126349176</v>
+        <v>2418.076126349175</v>
       </c>
       <c r="U17" t="n">
-        <v>2335.581075671079</v>
+        <v>2335.581075671078</v>
       </c>
       <c r="V17" t="n">
-        <v>2170.992087174929</v>
+        <v>2170.992087174928</v>
       </c>
       <c r="W17" t="n">
-        <v>1980.847442640439</v>
+        <v>1980.847442640438</v>
       </c>
       <c r="X17" t="n">
         <v>1771.207587769841</v>
       </c>
       <c r="Y17" t="n">
-        <v>1550.056017953588</v>
+        <v>1550.056017953587</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>929.0104300374838</v>
+        <v>860.628144727545</v>
       </c>
       <c r="C18" t="n">
-        <v>767.3067572784386</v>
+        <v>698.9244719684997</v>
       </c>
       <c r="D18" t="n">
-        <v>628.4681202686506</v>
+        <v>560.0858349587118</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4401103255219</v>
+        <v>413.0578250155829</v>
       </c>
       <c r="F18" t="n">
-        <v>346.7463122753962</v>
+        <v>278.3640269654572</v>
       </c>
       <c r="G18" t="n">
-        <v>218.0178122986808</v>
+        <v>149.6355269887418</v>
       </c>
       <c r="H18" t="n">
-        <v>118.0799548453789</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="I18" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J18" t="n">
         <v>109.951816068546</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4423686287347</v>
+        <v>339.4423686287346</v>
       </c>
       <c r="L18" t="n">
         <v>705.2642137988503</v>
@@ -5613,31 +5613,31 @@
         <v>2395.859083492047</v>
       </c>
       <c r="Q18" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R18" t="n">
-        <v>2425.099207866939</v>
+        <v>2425.099207866938</v>
       </c>
       <c r="S18" t="n">
-        <v>2272.29972087968</v>
+        <v>2272.299720879678</v>
       </c>
       <c r="T18" t="n">
-        <v>2167.074471011417</v>
+        <v>2083.614617045664</v>
       </c>
       <c r="U18" t="n">
-        <v>1948.579678609727</v>
+        <v>1865.119824643974</v>
       </c>
       <c r="V18" t="n">
-        <v>1720.184056058061</v>
+        <v>1651.801770748122</v>
       </c>
       <c r="W18" t="n">
-        <v>1478.868187291371</v>
+        <v>1410.485901981432</v>
       </c>
       <c r="X18" t="n">
-        <v>1280.951199169166</v>
+        <v>1212.568913859227</v>
       </c>
       <c r="Y18" t="n">
-        <v>1088.429872818745</v>
+        <v>1020.047587508806</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="C19" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="D19" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="E19" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="F19" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="G19" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="H19" t="n">
-        <v>56.32979223867632</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="I19" t="n">
-        <v>56.32979223867632</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J19" t="n">
-        <v>56.32979223867632</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="K19" t="n">
-        <v>89.93397998331973</v>
+        <v>83.30185728008325</v>
       </c>
       <c r="L19" t="n">
-        <v>190.5410593835792</v>
+        <v>183.9089366803428</v>
       </c>
       <c r="M19" t="n">
-        <v>308.534565511181</v>
+        <v>301.9024428079445</v>
       </c>
       <c r="N19" t="n">
-        <v>426.9569072607813</v>
+        <v>420.3247845575449</v>
       </c>
       <c r="O19" t="n">
-        <v>525.420553756471</v>
+        <v>518.7884310532346</v>
       </c>
       <c r="P19" t="n">
-        <v>588.3890374846088</v>
+        <v>581.7569147813724</v>
       </c>
       <c r="Q19" t="n">
-        <v>588.3890374846088</v>
+        <v>581.7569147813724</v>
       </c>
       <c r="R19" t="n">
-        <v>588.3890374846088</v>
+        <v>588.3890374846085</v>
       </c>
       <c r="S19" t="n">
-        <v>547.0695604962051</v>
+        <v>547.0695604962049</v>
       </c>
       <c r="T19" t="n">
-        <v>486.2808929197927</v>
+        <v>486.2808929197924</v>
       </c>
       <c r="U19" t="n">
-        <v>371.4809390168013</v>
+        <v>371.4809390168011</v>
       </c>
       <c r="V19" t="n">
-        <v>283.1359201831327</v>
+        <v>283.1359201831325</v>
       </c>
       <c r="W19" t="n">
-        <v>169.3698043084405</v>
+        <v>169.3698043084404</v>
       </c>
       <c r="X19" t="n">
-        <v>110.5076258117251</v>
+        <v>110.507625811725</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.86275261191093</v>
+        <v>60.86275261191087</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1118.859290984193</v>
       </c>
       <c r="D20" t="n">
-        <v>918.4256118193255</v>
+        <v>918.4256118193254</v>
       </c>
       <c r="E20" t="n">
-        <v>696.0301775333411</v>
+        <v>696.030177533341</v>
       </c>
       <c r="F20" t="n">
-        <v>454.2692724514202</v>
+        <v>454.2692724514201</v>
       </c>
       <c r="G20" t="n">
         <v>210.555571513517</v>
       </c>
       <c r="H20" t="n">
-        <v>50.12458271873509</v>
+        <v>50.12458271873503</v>
       </c>
       <c r="I20" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J20" t="n">
         <v>121.6962138082455</v>
@@ -5756,46 +5756,46 @@
         <v>361.8365858530283</v>
       </c>
       <c r="L20" t="n">
-        <v>747.7997793671432</v>
+        <v>709.7219589379745</v>
       </c>
       <c r="M20" t="n">
-        <v>1141.038945620231</v>
+        <v>1102.961125191062</v>
       </c>
       <c r="N20" t="n">
-        <v>1519.370304307947</v>
+        <v>1481.292483878778</v>
       </c>
       <c r="O20" t="n">
-        <v>1824.374888780781</v>
+        <v>1824.374888780779</v>
       </c>
       <c r="P20" t="n">
-        <v>2221.491504161145</v>
+        <v>2221.491504161144</v>
       </c>
       <c r="Q20" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R20" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="S20" t="n">
-        <v>2470.044787010256</v>
+        <v>2470.044787010255</v>
       </c>
       <c r="T20" t="n">
-        <v>2418.076126349176</v>
+        <v>2418.076126349175</v>
       </c>
       <c r="U20" t="n">
-        <v>2335.581075671079</v>
+        <v>2335.581075671078</v>
       </c>
       <c r="V20" t="n">
-        <v>2170.992087174929</v>
+        <v>2170.992087174928</v>
       </c>
       <c r="W20" t="n">
-        <v>1980.847442640439</v>
+        <v>1980.847442640438</v>
       </c>
       <c r="X20" t="n">
-        <v>1771.207587769841</v>
+        <v>1771.20758776984</v>
       </c>
       <c r="Y20" t="n">
-        <v>1550.056017953588</v>
+        <v>1550.056017953587</v>
       </c>
     </row>
     <row r="21">
@@ -5826,13 +5826,13 @@
         <v>118.0799548453789</v>
       </c>
       <c r="I21" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J21" t="n">
         <v>109.951816068546</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4423686287347</v>
+        <v>339.4423686287346</v>
       </c>
       <c r="L21" t="n">
         <v>705.2642137988503</v>
@@ -5847,34 +5847,34 @@
         <v>2093.76316421635</v>
       </c>
       <c r="P21" t="n">
-        <v>2395.859083492047</v>
+        <v>2327.111846986398</v>
       </c>
       <c r="Q21" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R21" t="n">
-        <v>2425.099207866939</v>
+        <v>2425.099207866938</v>
       </c>
       <c r="S21" t="n">
-        <v>2272.29972087968</v>
+        <v>2272.299720879678</v>
       </c>
       <c r="T21" t="n">
-        <v>2083.614617045665</v>
+        <v>2083.614617045664</v>
       </c>
       <c r="U21" t="n">
-        <v>1865.119824643975</v>
+        <v>1865.119824643974</v>
       </c>
       <c r="V21" t="n">
-        <v>1636.724202092309</v>
+        <v>1636.724202092308</v>
       </c>
       <c r="W21" t="n">
-        <v>1395.408333325619</v>
+        <v>1478.868187291371</v>
       </c>
       <c r="X21" t="n">
-        <v>1197.491345203414</v>
+        <v>1280.951199169166</v>
       </c>
       <c r="Y21" t="n">
-        <v>1004.970018852992</v>
+        <v>1088.429872818745</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="C22" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="D22" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="E22" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="F22" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="G22" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="H22" t="n">
-        <v>49.69766953543987</v>
+        <v>56.32979223867598</v>
       </c>
       <c r="I22" t="n">
-        <v>49.69766953543987</v>
+        <v>56.32979223867598</v>
       </c>
       <c r="J22" t="n">
-        <v>49.69766953543987</v>
+        <v>56.32979223867598</v>
       </c>
       <c r="K22" t="n">
-        <v>83.30185728008328</v>
+        <v>89.93397998331939</v>
       </c>
       <c r="L22" t="n">
-        <v>183.9089366803428</v>
+        <v>190.5410593835789</v>
       </c>
       <c r="M22" t="n">
-        <v>301.9024428079445</v>
+        <v>308.5345655111806</v>
       </c>
       <c r="N22" t="n">
-        <v>420.3247845575449</v>
+        <v>426.956907260781</v>
       </c>
       <c r="O22" t="n">
-        <v>518.7884310532346</v>
+        <v>525.4205537564707</v>
       </c>
       <c r="P22" t="n">
-        <v>581.7569147813724</v>
+        <v>588.3890374846085</v>
       </c>
       <c r="Q22" t="n">
-        <v>581.7569147813724</v>
+        <v>588.3890374846085</v>
       </c>
       <c r="R22" t="n">
-        <v>588.3890374846088</v>
+        <v>588.3890374846085</v>
       </c>
       <c r="S22" t="n">
-        <v>547.0695604962051</v>
+        <v>547.0695604962049</v>
       </c>
       <c r="T22" t="n">
-        <v>486.2808929197927</v>
+        <v>486.2808929197924</v>
       </c>
       <c r="U22" t="n">
-        <v>371.4809390168013</v>
+        <v>371.4809390168011</v>
       </c>
       <c r="V22" t="n">
-        <v>283.1359201831327</v>
+        <v>283.1359201831325</v>
       </c>
       <c r="W22" t="n">
-        <v>169.3698043084405</v>
+        <v>169.3698043084404</v>
       </c>
       <c r="X22" t="n">
-        <v>110.5076258117251</v>
+        <v>110.507625811725</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.86275261191093</v>
+        <v>60.86275261191087</v>
       </c>
     </row>
     <row r="23">
@@ -5981,55 +5981,55 @@
         <v>210.555571513517</v>
       </c>
       <c r="H23" t="n">
-        <v>50.12458271873509</v>
+        <v>50.12458271873503</v>
       </c>
       <c r="I23" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J23" t="n">
-        <v>121.6962138082455</v>
+        <v>290.6559327325569</v>
       </c>
       <c r="K23" t="n">
-        <v>361.8365858530283</v>
+        <v>530.7963047773396</v>
       </c>
       <c r="L23" t="n">
-        <v>709.7219589379745</v>
+        <v>1047.641396786597</v>
       </c>
       <c r="M23" t="n">
-        <v>1102.961125191062</v>
+        <v>1440.880563039685</v>
       </c>
       <c r="N23" t="n">
-        <v>1650.252202803089</v>
+        <v>1819.211921727401</v>
       </c>
       <c r="O23" t="n">
-        <v>2124.216506200235</v>
+        <v>2162.294326629402</v>
       </c>
       <c r="P23" t="n">
-        <v>2390.451223085457</v>
+        <v>2390.451223085455</v>
       </c>
       <c r="Q23" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R23" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="S23" t="n">
-        <v>2470.044787010256</v>
+        <v>2470.044787010255</v>
       </c>
       <c r="T23" t="n">
-        <v>2418.076126349176</v>
+        <v>2418.076126349175</v>
       </c>
       <c r="U23" t="n">
-        <v>2335.581075671079</v>
+        <v>2335.581075671078</v>
       </c>
       <c r="V23" t="n">
-        <v>2170.992087174929</v>
+        <v>2170.992087174928</v>
       </c>
       <c r="W23" t="n">
-        <v>1980.847442640439</v>
+        <v>1980.847442640438</v>
       </c>
       <c r="X23" t="n">
-        <v>1771.207587769841</v>
+        <v>1771.20758776984</v>
       </c>
       <c r="Y23" t="n">
         <v>1550.056017953587</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>860.628144727545</v>
+        <v>845.5505760717301</v>
       </c>
       <c r="C24" t="n">
-        <v>698.9244719684997</v>
+        <v>683.8469033126848</v>
       </c>
       <c r="D24" t="n">
-        <v>560.0858349587118</v>
+        <v>628.4681202686506</v>
       </c>
       <c r="E24" t="n">
-        <v>413.0578250155829</v>
+        <v>481.4401103255219</v>
       </c>
       <c r="F24" t="n">
-        <v>278.3640269654572</v>
+        <v>346.7463122753962</v>
       </c>
       <c r="G24" t="n">
-        <v>149.6355269887418</v>
+        <v>218.0178122986808</v>
       </c>
       <c r="H24" t="n">
-        <v>49.69766953543987</v>
+        <v>118.0799548453789</v>
       </c>
       <c r="I24" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J24" t="n">
-        <v>49.69766953543987</v>
+        <v>109.951816068546</v>
       </c>
       <c r="K24" t="n">
-        <v>270.6951321230874</v>
+        <v>339.4423686287346</v>
       </c>
       <c r="L24" t="n">
-        <v>636.516977293203</v>
+        <v>705.2642137988503</v>
       </c>
       <c r="M24" t="n">
-        <v>1121.550330803429</v>
+        <v>1190.297567309077</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.815976926551</v>
+        <v>1701.563213432199</v>
       </c>
       <c r="O24" t="n">
-        <v>2025.015927710702</v>
+        <v>2093.76316421635</v>
       </c>
       <c r="P24" t="n">
-        <v>2327.1118469864</v>
+        <v>2327.111846986398</v>
       </c>
       <c r="Q24" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R24" t="n">
-        <v>2440.176776522752</v>
+        <v>2425.099207866938</v>
       </c>
       <c r="S24" t="n">
-        <v>2287.377289535493</v>
+        <v>2272.299720879678</v>
       </c>
       <c r="T24" t="n">
-        <v>2098.692185701478</v>
+        <v>2083.614617045664</v>
       </c>
       <c r="U24" t="n">
-        <v>1880.197393299788</v>
+        <v>1865.119824643974</v>
       </c>
       <c r="V24" t="n">
-        <v>1651.801770748122</v>
+        <v>1636.724202092308</v>
       </c>
       <c r="W24" t="n">
-        <v>1410.485901981432</v>
+        <v>1395.408333325618</v>
       </c>
       <c r="X24" t="n">
-        <v>1212.568913859227</v>
+        <v>1197.491345203412</v>
       </c>
       <c r="Y24" t="n">
-        <v>1020.047587508806</v>
+        <v>1004.970018852991</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="C25" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="D25" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="E25" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="F25" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="G25" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="H25" t="n">
-        <v>49.69766953543987</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="I25" t="n">
-        <v>56.32979223867632</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J25" t="n">
-        <v>56.32979223867632</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="K25" t="n">
-        <v>89.93397998331973</v>
+        <v>83.30185728008325</v>
       </c>
       <c r="L25" t="n">
-        <v>190.5410593835792</v>
+        <v>183.9089366803428</v>
       </c>
       <c r="M25" t="n">
-        <v>308.534565511181</v>
+        <v>301.9024428079445</v>
       </c>
       <c r="N25" t="n">
-        <v>426.9569072607813</v>
+        <v>420.3247845575449</v>
       </c>
       <c r="O25" t="n">
-        <v>525.420553756471</v>
+        <v>518.7884310532346</v>
       </c>
       <c r="P25" t="n">
-        <v>588.3890374846088</v>
+        <v>581.7569147813724</v>
       </c>
       <c r="Q25" t="n">
-        <v>588.3890374846088</v>
+        <v>581.7569147813724</v>
       </c>
       <c r="R25" t="n">
-        <v>588.3890374846088</v>
+        <v>588.3890374846085</v>
       </c>
       <c r="S25" t="n">
-        <v>547.0695604962051</v>
+        <v>547.0695604962049</v>
       </c>
       <c r="T25" t="n">
-        <v>486.2808929197927</v>
+        <v>486.2808929197924</v>
       </c>
       <c r="U25" t="n">
-        <v>371.4809390168013</v>
+        <v>371.4809390168011</v>
       </c>
       <c r="V25" t="n">
-        <v>283.1359201831327</v>
+        <v>283.1359201831325</v>
       </c>
       <c r="W25" t="n">
-        <v>169.3698043084405</v>
+        <v>169.3698043084404</v>
       </c>
       <c r="X25" t="n">
-        <v>110.5076258117251</v>
+        <v>110.507625811725</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.86275261191093</v>
+        <v>60.86275261191087</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1686.001422744417</v>
+        <v>1422.858215795352</v>
       </c>
       <c r="C26" t="n">
-        <v>1418.64358883299</v>
+        <v>1155.500381883926</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.39554881598</v>
+        <v>1155.500381883926</v>
       </c>
       <c r="E26" t="n">
-        <v>880.1857536778534</v>
+        <v>875.2905867457993</v>
       </c>
       <c r="F26" t="n">
-        <v>580.6104877437901</v>
+        <v>638.8517617792276</v>
       </c>
       <c r="G26" t="n">
-        <v>279.0824259537445</v>
+        <v>337.323699989182</v>
       </c>
       <c r="H26" t="n">
-        <v>60.83707630682017</v>
+        <v>119.0783503422577</v>
       </c>
       <c r="I26" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J26" t="n">
-        <v>245.1314844327524</v>
+        <v>245.1314844327525</v>
       </c>
       <c r="K26" t="n">
         <v>597.5677203306618</v>
@@ -6233,19 +6233,19 @@
         <v>1057.748957268735</v>
       </c>
       <c r="M26" t="n">
-        <v>1563.283987374949</v>
+        <v>1563.283987374948</v>
       </c>
       <c r="N26" t="n">
         <v>2053.911209915791</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.211658241752</v>
+        <v>2471.211658241751</v>
       </c>
       <c r="P26" t="n">
-        <v>2811.664418550932</v>
+        <v>2811.664418550931</v>
       </c>
       <c r="Q26" t="n">
-        <v>3018.392536090596</v>
+        <v>3018.392536090595</v>
       </c>
       <c r="R26" t="n">
         <v>3041.853815341008</v>
@@ -6254,22 +6254,22 @@
         <v>2969.200764727128</v>
       </c>
       <c r="T26" t="n">
-        <v>2874.601944776337</v>
+        <v>2859.417743213905</v>
       </c>
       <c r="U26" t="n">
-        <v>2734.292533246098</v>
+        <v>2719.108331683666</v>
       </c>
       <c r="V26" t="n">
-        <v>2511.889183897805</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="W26" t="n">
-        <v>2511.889183897805</v>
+        <v>2248.745976948741</v>
       </c>
       <c r="X26" t="n">
-        <v>2244.434968175065</v>
+        <v>1981.291761226001</v>
       </c>
       <c r="Y26" t="n">
-        <v>1965.469037506669</v>
+        <v>1702.325830557605</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>129.2193616167592</v>
       </c>
       <c r="I27" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J27" t="n">
         <v>121.0912228399263</v>
@@ -6327,28 +6327,28 @@
         <v>2564.770120049021</v>
       </c>
       <c r="R27" t="n">
-        <v>2504.985851143967</v>
+        <v>2519.698468604072</v>
       </c>
       <c r="S27" t="n">
-        <v>2352.186364156707</v>
+        <v>2366.898981616812</v>
       </c>
       <c r="T27" t="n">
-        <v>2163.501260322693</v>
+        <v>2178.213877782798</v>
       </c>
       <c r="U27" t="n">
-        <v>1945.006467921003</v>
+        <v>1959.719085381108</v>
       </c>
       <c r="V27" t="n">
-        <v>1716.610845369337</v>
+        <v>1731.323462829442</v>
       </c>
       <c r="W27" t="n">
-        <v>1475.294976602647</v>
+        <v>1490.007594062752</v>
       </c>
       <c r="X27" t="n">
-        <v>1277.377988480441</v>
+        <v>1292.090605940546</v>
       </c>
       <c r="Y27" t="n">
-        <v>1084.85666213002</v>
+        <v>1099.569279590125</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4785731901144</v>
+        <v>358.4785731901141</v>
       </c>
       <c r="C28" t="n">
-        <v>303.4385284075611</v>
+        <v>303.4385284075607</v>
       </c>
       <c r="D28" t="n">
-        <v>264.9425599910901</v>
+        <v>264.94255999109</v>
       </c>
       <c r="E28" t="n">
-        <v>227.5094705081753</v>
+        <v>227.5094705081752</v>
       </c>
       <c r="F28" t="n">
-        <v>189.6047402897188</v>
+        <v>189.6047402897187</v>
       </c>
       <c r="G28" t="n">
         <v>135.2609164133351</v>
       </c>
       <c r="H28" t="n">
-        <v>90.46419594837531</v>
+        <v>90.46419594837525</v>
       </c>
       <c r="I28" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J28" t="n">
-        <v>114.2708406219774</v>
+        <v>114.2708406219775</v>
       </c>
       <c r="K28" t="n">
-        <v>260.1708922197474</v>
+        <v>260.1708922197475</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0738354731335</v>
+        <v>473.0738354731337</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3632054538618</v>
+        <v>703.3632054538621</v>
       </c>
       <c r="N28" t="n">
-        <v>934.0814110565888</v>
+        <v>934.0814110565891</v>
       </c>
       <c r="O28" t="n">
         <v>1144.840921405405</v>
       </c>
       <c r="P28" t="n">
-        <v>1320.105268986669</v>
+        <v>1320.10526898667</v>
       </c>
       <c r="Q28" t="n">
-        <v>1394.630684586278</v>
+        <v>1394.630684586277</v>
       </c>
       <c r="R28" t="n">
-        <v>1359.684827956423</v>
+        <v>1359.684827956422</v>
       </c>
       <c r="S28" t="n">
-        <v>1260.550990115877</v>
+        <v>1260.550990115876</v>
       </c>
       <c r="T28" t="n">
-        <v>1141.947961687322</v>
+        <v>1141.947961687321</v>
       </c>
       <c r="U28" t="n">
-        <v>969.333646932188</v>
+        <v>969.3336469321873</v>
       </c>
       <c r="V28" t="n">
-        <v>823.174267246377</v>
+        <v>823.1742672463763</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195424</v>
+        <v>651.5937905195417</v>
       </c>
       <c r="X28" t="n">
-        <v>534.9172511706845</v>
+        <v>534.917251170684</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.4580171187279</v>
+        <v>427.4580171187275</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1444.667430845791</v>
+        <v>1744.242696779854</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.309596934365</v>
+        <v>1476.884862868428</v>
       </c>
       <c r="D29" t="n">
-        <v>919.0615569173546</v>
+        <v>1218.636822851418</v>
       </c>
       <c r="E29" t="n">
-        <v>638.8517617792279</v>
+        <v>938.427027713291</v>
       </c>
       <c r="F29" t="n">
-        <v>638.8517617792279</v>
+        <v>638.8517617792277</v>
       </c>
       <c r="G29" t="n">
-        <v>337.3236999891822</v>
+        <v>337.323699989182</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0783503422578</v>
+        <v>119.0783503422577</v>
       </c>
       <c r="I29" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J29" t="n">
         <v>245.1314844327526</v>
       </c>
       <c r="K29" t="n">
-        <v>597.5677203306619</v>
+        <v>597.567720330662</v>
       </c>
       <c r="L29" t="n">
         <v>1057.748957268735</v>
@@ -6473,7 +6473,7 @@
         <v>1563.283987374949</v>
       </c>
       <c r="N29" t="n">
-        <v>2053.911209915791</v>
+        <v>2053.911209915792</v>
       </c>
       <c r="O29" t="n">
         <v>2471.211658241752</v>
@@ -6482,7 +6482,7 @@
         <v>2811.664418550932</v>
       </c>
       <c r="Q29" t="n">
-        <v>3018.392536090596</v>
+        <v>3018.392536090595</v>
       </c>
       <c r="R29" t="n">
         <v>3041.853815341008</v>
@@ -6491,22 +6491,22 @@
         <v>2969.200764727128</v>
       </c>
       <c r="T29" t="n">
-        <v>2859.417743213906</v>
+        <v>2859.417743213905</v>
       </c>
       <c r="U29" t="n">
-        <v>2719.108331683666</v>
+        <v>2792.533807281535</v>
       </c>
       <c r="V29" t="n">
-        <v>2496.704982335374</v>
+        <v>2570.130457933243</v>
       </c>
       <c r="W29" t="n">
-        <v>2248.745976948741</v>
+        <v>2570.130457933243</v>
       </c>
       <c r="X29" t="n">
-        <v>1981.291761226001</v>
+        <v>2302.676242210503</v>
       </c>
       <c r="Y29" t="n">
-        <v>1724.135045608044</v>
+        <v>2023.710311542107</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>214.4446016099565</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5067441566545</v>
+        <v>129.2193616167592</v>
       </c>
       <c r="I30" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J30" t="n">
         <v>121.0912228399263</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.4785731901142</v>
+        <v>358.4785731901141</v>
       </c>
       <c r="C31" t="n">
         <v>303.4385284075609</v>
@@ -6613,13 +6613,13 @@
         <v>135.2609164133351</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837526</v>
+        <v>90.46419594837525</v>
       </c>
       <c r="I31" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219774</v>
+        <v>114.2708406219775</v>
       </c>
       <c r="K31" t="n">
         <v>260.1708922197477</v>
@@ -6631,10 +6631,10 @@
         <v>703.3632054538623</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565892</v>
+        <v>934.0814110565893</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.840921405405</v>
+        <v>1144.840921405406</v>
       </c>
       <c r="P31" t="n">
         <v>1320.10526898667</v>
@@ -6652,19 +6652,19 @@
         <v>1141.947961687321</v>
       </c>
       <c r="U31" t="n">
-        <v>969.3336469321875</v>
+        <v>969.3336469321874</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1742672463765</v>
+        <v>823.1742672463764</v>
       </c>
       <c r="W31" t="n">
-        <v>651.593790519542</v>
+        <v>651.5937905195419</v>
       </c>
       <c r="X31" t="n">
-        <v>534.9172511706842</v>
+        <v>534.917251170684</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4580171187276</v>
+        <v>427.4580171187275</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1545.026613203302</v>
+        <v>1545.026613203301</v>
       </c>
       <c r="C32" t="n">
         <v>1305.833507158455</v>
       </c>
       <c r="D32" t="n">
-        <v>1075.750195008025</v>
+        <v>1075.750195008024</v>
       </c>
       <c r="E32" t="n">
-        <v>823.7051277364781</v>
+        <v>823.7051277364773</v>
       </c>
       <c r="F32" t="n">
-        <v>552.2945896689946</v>
+        <v>552.2945896689939</v>
       </c>
       <c r="G32" t="n">
-        <v>278.9312557455287</v>
+        <v>278.9312557455282</v>
       </c>
       <c r="H32" t="n">
-        <v>88.85063396518419</v>
+        <v>88.85063396518407</v>
       </c>
       <c r="I32" t="n">
-        <v>58.77408779632638</v>
+        <v>58.77408779632636</v>
       </c>
       <c r="J32" t="n">
         <v>270.6727457042936</v>
       </c>
       <c r="K32" t="n">
-        <v>650.7132313842378</v>
+        <v>650.7132313842379</v>
       </c>
       <c r="L32" t="n">
-        <v>998.598604469184</v>
+        <v>1138.498718104346</v>
       </c>
       <c r="M32" t="n">
-        <v>1531.737884357433</v>
+        <v>1531.737884357434</v>
       </c>
       <c r="N32" t="n">
-        <v>2049.969356680311</v>
+        <v>1980.244898898123</v>
       </c>
       <c r="O32" t="n">
-        <v>2494.874054788306</v>
+        <v>2285.249483370957</v>
       </c>
       <c r="P32" t="n">
-        <v>2793.206607097335</v>
+        <v>2653.306493462172</v>
       </c>
       <c r="Q32" t="n">
-        <v>2887.638860783872</v>
+        <v>2887.63886078387</v>
       </c>
       <c r="R32" t="n">
-        <v>2938.704389816319</v>
+        <v>2938.704389816318</v>
       </c>
       <c r="S32" t="n">
-        <v>2894.21606706902</v>
+        <v>2894.216067069018</v>
       </c>
       <c r="T32" t="n">
-        <v>2812.597773422377</v>
+        <v>2812.597773422376</v>
       </c>
       <c r="U32" t="n">
-        <v>2700.453089758716</v>
+        <v>2700.453089758715</v>
       </c>
       <c r="V32" t="n">
-        <v>2506.214468277004</v>
+        <v>2506.214468277003</v>
       </c>
       <c r="W32" t="n">
-        <v>2286.420190756951</v>
+        <v>2286.42019075695</v>
       </c>
       <c r="X32" t="n">
         <v>2047.13070290079</v>
       </c>
       <c r="Y32" t="n">
-        <v>1796.329500098975</v>
+        <v>1796.329500098974</v>
       </c>
     </row>
     <row r="33">
@@ -6768,13 +6768,13 @@
         <v>341.1101130761783</v>
       </c>
       <c r="G33" t="n">
-        <v>212.3816130994629</v>
+        <v>227.0942305595673</v>
       </c>
       <c r="H33" t="n">
-        <v>112.4437556461609</v>
+        <v>127.1563731062654</v>
       </c>
       <c r="I33" t="n">
-        <v>58.77408779632638</v>
+        <v>58.77408779632636</v>
       </c>
       <c r="J33" t="n">
         <v>119.0282343294325</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>159.2624896135617</v>
+        <v>159.2624896135611</v>
       </c>
       <c r="C34" t="n">
-        <v>132.3871726975882</v>
+        <v>132.3871726975876</v>
       </c>
       <c r="D34" t="n">
-        <v>122.0559321476971</v>
+        <v>122.0559321476966</v>
       </c>
       <c r="E34" t="n">
-        <v>112.7875705313621</v>
+        <v>112.7875705313618</v>
       </c>
       <c r="F34" t="n">
-        <v>103.0475681794854</v>
+        <v>103.0475681794852</v>
       </c>
       <c r="G34" t="n">
-        <v>76.86847216968164</v>
+        <v>76.86847216968144</v>
       </c>
       <c r="H34" t="n">
-        <v>60.23647957130166</v>
+        <v>60.23647957130155</v>
       </c>
       <c r="I34" t="n">
-        <v>58.77408779632638</v>
+        <v>58.77408779632636</v>
       </c>
       <c r="J34" t="n">
-        <v>130.0725776942511</v>
+        <v>130.0725776942497</v>
       </c>
       <c r="K34" t="n">
-        <v>163.6767654388945</v>
+        <v>303.5768790740547</v>
       </c>
       <c r="L34" t="n">
-        <v>404.1839584743155</v>
+        <v>404.1839584743142</v>
       </c>
       <c r="M34" t="n">
-        <v>522.1774646019172</v>
+        <v>522.177464601916</v>
       </c>
       <c r="N34" t="n">
-        <v>640.5998063515176</v>
+        <v>640.5998063515163</v>
       </c>
       <c r="O34" t="n">
-        <v>878.9635664823688</v>
+        <v>739.063452847206</v>
       </c>
       <c r="P34" t="n">
-        <v>941.9320502105066</v>
+        <v>941.9320502105054</v>
       </c>
       <c r="Q34" t="n">
-        <v>941.9320502105066</v>
+        <v>941.9320502105054</v>
       </c>
       <c r="R34" t="n">
-        <v>935.1509214472311</v>
+        <v>935.1509214472298</v>
       </c>
       <c r="S34" t="n">
-        <v>864.1818114732648</v>
+        <v>864.1818114732637</v>
       </c>
       <c r="T34" t="n">
-        <v>773.7435109112898</v>
+        <v>773.7435109112888</v>
       </c>
       <c r="U34" t="n">
-        <v>629.293924022736</v>
+        <v>629.2939240227349</v>
       </c>
       <c r="V34" t="n">
-        <v>511.2992722035048</v>
+        <v>511.2992722035038</v>
       </c>
       <c r="W34" t="n">
-        <v>367.8835233432501</v>
+        <v>367.8835233432492</v>
       </c>
       <c r="X34" t="n">
-        <v>279.371711860972</v>
+        <v>279.3717118609712</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.0772056755953</v>
+        <v>200.0772056755946</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>163.2749745479474</v>
       </c>
       <c r="K35" t="n">
-        <v>527.7073651707066</v>
+        <v>403.4153465927301</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556529</v>
+        <v>751.3007196776764</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1144.539885930764</v>
       </c>
       <c r="N35" t="n">
-        <v>1647.163263196456</v>
+        <v>1522.87124461848</v>
       </c>
       <c r="O35" t="n">
-        <v>1952.16784766929</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P35" t="n">
-        <v>2296.133689926718</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q35" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
         <v>348.1493171020421</v>
@@ -7041,25 +7041,25 @@
         <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670345</v>
+        <v>65.54268635500836</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670345</v>
+        <v>65.54268635500836</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670345</v>
+        <v>65.54268635500836</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208573</v>
+        <v>64.43007423039063</v>
       </c>
       <c r="H37" t="n">
-        <v>56.26358779153714</v>
+        <v>72.69671914058928</v>
       </c>
       <c r="I37" t="n">
-        <v>79.39795846875474</v>
+        <v>95.83108981780688</v>
       </c>
       <c r="J37" t="n">
-        <v>79.39795846875474</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K37" t="n">
-        <v>113.0021462133981</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L37" t="n">
-        <v>213.6092256136577</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M37" t="n">
-        <v>331.6027317412594</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>450.0250734908598</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>548.4887199865494</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007348</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W37" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C38" t="n">
         <v>1147.761190413098</v>
@@ -7160,16 +7160,16 @@
         <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791956</v>
       </c>
       <c r="G38" t="n">
         <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
         <v>123.0992186348914</v>
@@ -7178,31 +7178,31 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>875.5927382556528</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M38" t="n">
-        <v>1268.831904508741</v>
+        <v>1144.539885930764</v>
       </c>
       <c r="N38" t="n">
-        <v>1762.97220899783</v>
+        <v>1522.87124461848</v>
       </c>
       <c r="O38" t="n">
-        <v>2067.976793470664</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.60146441775</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215968</v>
       </c>
       <c r="R38" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="S38" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T38" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U38" t="n">
         <v>2391.981869702243</v>
@@ -7248,55 +7248,55 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
       </c>
       <c r="M39" t="n">
-        <v>1191.700572135723</v>
+        <v>1191.700572135722</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.966218258845</v>
+        <v>1702.966218258844</v>
       </c>
       <c r="O39" t="n">
-        <v>2095.166169042996</v>
+        <v>2095.166169042995</v>
       </c>
       <c r="P39" t="n">
-        <v>2397.262088318693</v>
+        <v>2397.262088318692</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2342.449962211972</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535706</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185285</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>66.12215891288226</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826453</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>73.07245222190386</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31943502373917</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683826</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C41" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D41" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E41" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F41" t="n">
         <v>469.4217245791957</v>
@@ -7403,31 +7403,31 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H41" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575749</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>363.2395906796742</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L41" t="n">
-        <v>875.5927382556528</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M41" t="n">
-        <v>1268.831904508741</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N41" t="n">
-        <v>1647.163263196456</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O41" t="n">
-        <v>2116.635622160323</v>
+        <v>1903.509018979632</v>
       </c>
       <c r="P41" t="n">
-        <v>2460.60146441775</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q41" t="n">
         <v>2555.033718104287</v>
@@ -7442,10 +7442,10 @@
         <v>2479.060069480717</v>
       </c>
       <c r="U41" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V41" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W41" t="n">
         <v>2028.08193847085</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
         <v>348.1493171020421</v>
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7518,22 +7518,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.90950739287317</v>
+        <v>52.90950739287321</v>
       </c>
       <c r="C43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>51.10067436208573</v>
+        <v>65.54268635500834</v>
       </c>
       <c r="E43" t="n">
-        <v>51.10067436208573</v>
+        <v>65.54268635500834</v>
       </c>
       <c r="F43" t="n">
-        <v>66.12215891288226</v>
+        <v>80.56417090580484</v>
       </c>
       <c r="G43" t="n">
-        <v>65.00954678826453</v>
+        <v>79.45155878118709</v>
       </c>
       <c r="H43" t="n">
-        <v>65.00954678826453</v>
+        <v>79.45155878118709</v>
       </c>
       <c r="I43" t="n">
-        <v>88.14391746548213</v>
+        <v>79.45155878118709</v>
       </c>
       <c r="J43" t="n">
-        <v>88.14391746548213</v>
+        <v>79.45155878118709</v>
       </c>
       <c r="K43" t="n">
-        <v>121.7481052101255</v>
+        <v>113.0557465258305</v>
       </c>
       <c r="L43" t="n">
-        <v>222.355184610385</v>
+        <v>213.66282592609</v>
       </c>
       <c r="M43" t="n">
-        <v>340.3486907379868</v>
+        <v>331.6563320536918</v>
       </c>
       <c r="N43" t="n">
-        <v>458.7710324875871</v>
+        <v>450.0786738032921</v>
       </c>
       <c r="O43" t="n">
-        <v>557.2346789832768</v>
+        <v>548.5423202989818</v>
       </c>
       <c r="P43" t="n">
-        <v>628.266068145054</v>
+        <v>611.5108040271197</v>
       </c>
       <c r="Q43" t="n">
-        <v>628.266068145054</v>
+        <v>611.5108040271197</v>
       </c>
       <c r="R43" t="n">
-        <v>628.266068145054</v>
+        <v>628.2660681450543</v>
       </c>
       <c r="S43" t="n">
-        <v>582.3634420562738</v>
+        <v>582.3634420562742</v>
       </c>
       <c r="T43" t="n">
-        <v>516.991625379485</v>
+        <v>516.9916253794852</v>
       </c>
       <c r="U43" t="n">
-        <v>397.608522376117</v>
+        <v>397.6085223761173</v>
       </c>
       <c r="V43" t="n">
-        <v>304.6803544420719</v>
+        <v>304.6803544420721</v>
       </c>
       <c r="W43" t="n">
-        <v>186.3310894670033</v>
+        <v>186.3310894670035</v>
       </c>
       <c r="X43" t="n">
-        <v>122.8857618699114</v>
+        <v>122.8857618699115</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.65773956972072</v>
+        <v>68.6577395697208</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>715.7657787614932</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G44" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H44" t="n">
         <v>56.11073664575749</v>
@@ -7646,25 +7646,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259237</v>
       </c>
       <c r="K44" t="n">
-        <v>527.7073651707066</v>
+        <v>527.7073651707065</v>
       </c>
       <c r="L44" t="n">
-        <v>875.5927382556529</v>
+        <v>875.5927382556526</v>
       </c>
       <c r="M44" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N44" t="n">
-        <v>1811.631037687489</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O44" t="n">
-        <v>2232.444567961697</v>
+        <v>2116.635622160322</v>
       </c>
       <c r="P44" t="n">
-        <v>2460.60146441775</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q44" t="n">
         <v>2555.033718104287</v>
@@ -7676,13 +7676,13 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T44" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U44" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V44" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W44" t="n">
         <v>2028.08193847085</v>
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
         <v>629.8711250952965</v>
@@ -7770,7 +7770,7 @@
         <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7798,34 +7798,34 @@
         <v>51.10067436208574</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>59.36731927228436</v>
       </c>
       <c r="I46" t="n">
-        <v>74.23504503930332</v>
+        <v>79.39795846875508</v>
       </c>
       <c r="J46" t="n">
-        <v>74.23504503930332</v>
+        <v>79.39795846875508</v>
       </c>
       <c r="K46" t="n">
-        <v>107.8392327839467</v>
+        <v>113.0021462133985</v>
       </c>
       <c r="L46" t="n">
-        <v>208.4463121842062</v>
+        <v>213.609225613658</v>
       </c>
       <c r="M46" t="n">
-        <v>326.439818311808</v>
+        <v>331.6027317412597</v>
       </c>
       <c r="N46" t="n">
-        <v>444.8621600614084</v>
+        <v>450.0250734908601</v>
       </c>
       <c r="O46" t="n">
-        <v>543.3258065570981</v>
+        <v>548.4887199865498</v>
       </c>
       <c r="P46" t="n">
-        <v>629.378680269672</v>
+        <v>611.4572037146876</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.378680269672</v>
+        <v>611.4572037146876</v>
       </c>
       <c r="R46" t="n">
         <v>629.378680269672</v>
@@ -7988,13 +7988,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>568.5510017355793</v>
+        <v>466.4434896000269</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>316.2308084873761</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
         <v>276.0094878578761</v>
@@ -8064,10 +8064,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>436.9964755005667</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>606.2309859515263</v>
+        <v>597.1761611888032</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8076,7 +8076,7 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8225,10 +8225,10 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>568.5510017355793</v>
+        <v>466.4434896000273</v>
       </c>
       <c r="O5" t="n">
-        <v>392.9327235060177</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
@@ -8292,19 +8292,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>303.6093500431386</v>
+        <v>606.2309859515262</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8313,7 +8313,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>169.0499887977442</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8532,10 +8532,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>264.0849600220859</v>
       </c>
       <c r="L9" t="n">
-        <v>338.0029786846563</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8547,7 +8547,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
         <v>273.1004740566038</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>335.2259293562096</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>203.6588210205944</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>335.2259293562096</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>203.6588210205944</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>203.6588210205958</v>
+        <v>203.6588210205944</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9495,10 +9495,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>344.559946195909</v>
       </c>
       <c r="Q21" t="n">
-        <v>203.6588210205958</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>335.2259293562096</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9732,7 +9732,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>344.559946195909</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -10908,7 +10908,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>605.4165828749996</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>280.8016135680805</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>259.7942345702903</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>201.1946177890406</v>
       </c>
       <c r="I11" t="n">
-        <v>61.78753624853363</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>76.05519506119126</v>
+        <v>76.05519506119113</v>
       </c>
       <c r="T11" t="n">
-        <v>112.8138662515406</v>
+        <v>112.8138662515405</v>
       </c>
       <c r="U11" t="n">
-        <v>143.0349923683876</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>224.3079908082597</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>42.6795676478676</v>
+        <v>249.6080902862165</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>72.41832444277757</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>98.43091383022082</v>
+        <v>26.01258938744014</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>139.779389053701</v>
+        <v>268.8129305257622</v>
       </c>
       <c r="D14" t="n">
-        <v>259.7942345702903</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>300.7081882281731</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>220.1915711039055</v>
+        <v>220.1915711039053</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>38.82579867179753</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>143.0349923683875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>249.6080902862165</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>41.1874335415359</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>48.47742821376046</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>8.766052074921298</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>98.43091383022156</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24446,13 +24446,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>62.50507655781666</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508327</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>15.03235954680714</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327663</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747227</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24734,19 +24734,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>72.69122084189026</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>21.59112289993405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778491.0419388223</v>
+        <v>778491.0419388226</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778491.0419388225</v>
+        <v>778491.0419388229</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>863577.0680559545</v>
+        <v>863577.0680559543</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>479765.0378088633</v>
+        <v>479765.0378088637</v>
       </c>
       <c r="C2" t="n">
         <v>479765.0378088636</v>
       </c>
       <c r="D2" t="n">
-        <v>479765.0378088636</v>
+        <v>479765.0378088634</v>
       </c>
       <c r="E2" t="n">
         <v>432495.0232993452</v>
       </c>
       <c r="F2" t="n">
-        <v>432495.0232993452</v>
+        <v>432495.0232993454</v>
       </c>
       <c r="G2" t="n">
         <v>479765.037808864</v>
       </c>
       <c r="H2" t="n">
-        <v>479765.0378088641</v>
+        <v>479765.037808864</v>
       </c>
       <c r="I2" t="n">
-        <v>479765.0378088641</v>
+        <v>479765.037808864</v>
       </c>
       <c r="J2" t="n">
-        <v>463936.0486591737</v>
+        <v>463936.0486591741</v>
       </c>
       <c r="K2" t="n">
-        <v>463936.0486591739</v>
+        <v>463936.0486591742</v>
       </c>
       <c r="L2" t="n">
-        <v>479765.0378088638</v>
+        <v>479765.0378088636</v>
       </c>
       <c r="M2" t="n">
+        <v>479765.037808863</v>
+      </c>
+      <c r="N2" t="n">
+        <v>479765.037808863</v>
+      </c>
+      <c r="O2" t="n">
         <v>479765.0378088631</v>
       </c>
-      <c r="N2" t="n">
-        <v>479765.0378088631</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>479765.037808863</v>
-      </c>
-      <c r="P2" t="n">
-        <v>479765.0378088631</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167399.2484849998</v>
+        <v>167399.2484849996</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8010.326512683548</v>
+        <v>8010.3265126836</v>
       </c>
       <c r="E3" t="n">
         <v>116080.0978984154</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49091.91375765709</v>
+        <v>49091.91375765701</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>208779.5291838294</v>
+        <v>208779.5291838295</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>71398.3782279883</v>
+        <v>71398.37822798827</v>
       </c>
       <c r="M3" t="n">
-        <v>19852.65523706737</v>
+        <v>19852.6552370673</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41652.21864890985</v>
+        <v>41652.21864890995</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>134251.7556368557</v>
+        <v>134251.7556368558</v>
       </c>
       <c r="F4" t="n">
-        <v>134251.7556368557</v>
+        <v>134251.7556368558</v>
       </c>
       <c r="G4" t="n">
         <v>177182.3714644568</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63998.16336893613</v>
+        <v>63998.16336893612</v>
       </c>
       <c r="C5" t="n">
-        <v>63998.16336893613</v>
+        <v>63998.16336893612</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46959.09585638228</v>
+        <v>46959.09585638227</v>
       </c>
       <c r="F5" t="n">
-        <v>46959.09585638228</v>
+        <v>46959.09585638227</v>
       </c>
       <c r="G5" t="n">
-        <v>52117.98097849787</v>
+        <v>52117.98097849786</v>
       </c>
       <c r="H5" t="n">
-        <v>52117.98097849787</v>
+        <v>52117.98097849786</v>
       </c>
       <c r="I5" t="n">
-        <v>52117.98097849787</v>
+        <v>52117.98097849786</v>
       </c>
       <c r="J5" t="n">
-        <v>55772.13857729292</v>
+        <v>55772.13857729291</v>
       </c>
       <c r="K5" t="n">
-        <v>55772.13857729292</v>
+        <v>55772.13857729291</v>
       </c>
       <c r="L5" t="n">
-        <v>56548.37001126299</v>
+        <v>56548.37001126297</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55641.93158042443</v>
+        <v>55641.93158042488</v>
       </c>
       <c r="C6" t="n">
-        <v>223041.1800654244</v>
+        <v>223041.1800654245</v>
       </c>
       <c r="D6" t="n">
-        <v>220412.9173259755</v>
+        <v>220412.9173259753</v>
       </c>
       <c r="E6" t="n">
-        <v>135204.0739076918</v>
+        <v>135014.9938496536</v>
       </c>
       <c r="F6" t="n">
-        <v>251284.1718061073</v>
+        <v>251095.0917480693</v>
       </c>
       <c r="G6" t="n">
-        <v>201372.7716082522</v>
+        <v>201372.7716082523</v>
       </c>
       <c r="H6" t="n">
-        <v>250464.6853659094</v>
+        <v>250464.6853659093</v>
       </c>
       <c r="I6" t="n">
-        <v>250464.6853659094</v>
+        <v>250464.6853659093</v>
       </c>
       <c r="J6" t="n">
-        <v>37487.9837279427</v>
+        <v>37424.6677713443</v>
       </c>
       <c r="K6" t="n">
-        <v>246267.5129117722</v>
+        <v>246204.1969551738</v>
       </c>
       <c r="L6" t="n">
-        <v>175711.4060301753</v>
+        <v>175711.4060301752</v>
       </c>
       <c r="M6" t="n">
-        <v>231486.4451389137</v>
+        <v>231486.4451389136</v>
       </c>
       <c r="N6" t="n">
-        <v>251339.1003759811</v>
+        <v>251339.100375981</v>
       </c>
       <c r="O6" t="n">
         <v>209686.8817270711</v>
       </c>
       <c r="P6" t="n">
-        <v>251339.1003759811</v>
+        <v>251339.100375981</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F2" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G2" t="n">
         <v>170.6663827518297</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.515844883818</v>
+        <v>499.5158448838177</v>
       </c>
       <c r="C4" t="n">
-        <v>499.515844883818</v>
+        <v>499.5158448838179</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>621.2208691929984</v>
+        <v>621.2208691929981</v>
       </c>
       <c r="F4" t="n">
-        <v>621.2208691929984</v>
+        <v>621.2208691929981</v>
       </c>
       <c r="G4" t="n">
-        <v>621.2208691929984</v>
+        <v>621.2208691929981</v>
       </c>
       <c r="H4" t="n">
-        <v>621.2208691929984</v>
+        <v>621.2208691929981</v>
       </c>
       <c r="I4" t="n">
-        <v>621.2208691929984</v>
+        <v>621.2208691929981</v>
       </c>
       <c r="J4" t="n">
-        <v>760.463453835252</v>
+        <v>760.4634538352519</v>
       </c>
       <c r="K4" t="n">
-        <v>760.463453835252</v>
+        <v>760.4634538352519</v>
       </c>
       <c r="L4" t="n">
-        <v>734.6760974540798</v>
+        <v>734.6760974540795</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260716</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.36489219707136</v>
+        <v>61.36489219707126</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>52.06527331113732</v>
+        <v>52.06527331113747</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>89.24797278498538</v>
+        <v>89.24797278498534</v>
       </c>
       <c r="M2" t="n">
-        <v>24.81581904633421</v>
+        <v>24.81581904633413</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.06527331113732</v>
+        <v>52.06527331113745</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.515844883818</v>
+        <v>499.5158448838177</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.78735638117229</v>
+        <v>25.78735638117246</v>
       </c>
       <c r="E4" t="n">
-        <v>95.91766792800803</v>
+        <v>95.91766792800775</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.36489219707136</v>
+        <v>61.36489219707126</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.06527331113732</v>
+        <v>52.06527331113747</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>499.515844883818</v>
+        <v>499.5158448838177</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.78735638117229</v>
+        <v>25.78735638117246</v>
       </c>
       <c r="M4" t="n">
-        <v>95.91766792800803</v>
+        <v>95.91766792800775</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>167.9462023603333</v>
       </c>
       <c r="U2" t="n">
-        <v>11.08638470318439</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27515,13 +27515,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>46.43011629334205</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>168.4041824372631</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -27543,10 +27543,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>84.69768482647871</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.393337073099417</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>68.24643826724895</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>287.0666851730849</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>20.23169199640643</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>79.07553734784938</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
@@ -27795,7 +27795,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>1.978662889133702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -27831,7 +27831,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>197.8245961146851</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27853,13 +27853,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>185.3490410026064</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>259.4988897613619</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>17.85431732927783</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,16 +27980,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>12.44103031728642</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.34131743188429</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28065,13 +28065,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="C11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="D11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="E11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="H11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="I11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="K11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>109.3014905547583</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>109.3014905547583</v>
+        <v>32.32115180167756</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>51.89073871733214</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="S11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="T11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="U11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="V11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="W11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="X11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Y11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.92679296925527</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -28178,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>82.62525542609623</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="C13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="D13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="E13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="H13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="I13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="K13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="L13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="M13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="N13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="O13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="P13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Q13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="R13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="S13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="T13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="U13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="V13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="W13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="X13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="C14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="D14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="E14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="H14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="I14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="J14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="K14" t="n">
-        <v>109.3014905547583</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,13 +28360,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>51.89073871733274</v>
+        <v>51.89073871733046</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="P14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="T14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="U14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="V14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="W14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="X14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Y14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
     </row>
     <row r="15">
@@ -28412,7 +28412,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>82.62525542609487</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28460,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>23.43882921009214</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="C16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="D16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="E16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="H16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="I16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="K16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="L16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="M16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="N16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="O16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="P16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Q16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="R16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="S16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="T16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="U16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="V16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="W16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="X16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
     </row>
     <row r="17">
@@ -28585,19 +28585,19 @@
         <v>170.6663827518297</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>170.6663827518297</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
-        <v>128.1943485170533</v>
+        <v>38.46244487794678</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28606,10 +28606,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="R17" t="n">
-        <v>170.6663827518297</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>170.6663827518297</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,13 +28694,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>82.6252554260949</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>14.92679296925633</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H19" t="n">
-        <v>164.4780326101719</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
         <v>142.7610139533483</v>
@@ -28767,7 +28767,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>154.7256774134182</v>
       </c>
       <c r="S19" t="n">
         <v>170.6663827518297</v>
@@ -28828,7 +28828,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>38.46244487794814</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28837,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>38.46244487794667</v>
       </c>
       <c r="P20" t="n">
         <v>170.6663827518297</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>82.62525542609477</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28940,7 +28940,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>82.62525542609598</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>164.4780326101716</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -29004,7 +29004,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>154.7256774134185</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
         <v>170.6663827518297</v>
@@ -29059,25 +29059,25 @@
         <v>170.6663827518297</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>170.6663827518297</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>170.6663827518297</v>
+        <v>38.46244487794667</v>
       </c>
       <c r="P23" t="n">
-        <v>38.46244487794831</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29120,7 +29120,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>82.62525542609617</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>14.92679296925479</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I25" t="n">
-        <v>149.4601277950012</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
         <v>59.456666199969</v>
@@ -29241,7 +29241,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>154.7256774134182</v>
       </c>
       <c r="S25" t="n">
         <v>170.6663827518297</v>
@@ -29305,7 +29305,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082077</v>
       </c>
       <c r="N26" t="n">
         <v>113.4301655082087</v>
@@ -29317,7 +29317,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.4301655082089</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R26" t="n">
         <v>113.4301655082087</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.4301655082103</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R28" t="n">
         <v>113.4301655082087</v>
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="I30" t="n">
-        <v>14.56549128550358</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="C32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="D32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="E32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="F32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="G32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="H32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="I32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="J32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="K32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="M32" t="n">
-        <v>141.3132460961227</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>141.3132460961227</v>
+        <v>70.8845008615898</v>
       </c>
       <c r="O32" t="n">
-        <v>141.3132460961227</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>70.88450086159111</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="R32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="S32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="T32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="U32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="V32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="W32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="X32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
     </row>
     <row r="33">
@@ -29840,13 +29840,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>14.56549128550338</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.56549128550341</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,37 +29904,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="C34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="D34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="E34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="F34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="G34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="H34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="I34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="J34" t="n">
-        <v>131.4753428645394</v>
+        <v>131.475342864538</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="L34" t="n">
-        <v>141.3132460961227</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>141.3132460961227</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="Q34" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="S34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="T34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="U34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="V34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="W34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="X34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
     </row>
     <row r="35">
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>40.5815716293495</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>116.9787331327009</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30159,13 +30159,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>162.9939828386719</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="J37" t="n">
-        <v>59.456666199969</v>
+        <v>59.83619456493321</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30250,25 +30250,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>40.58157162934901</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>116.9787331327009</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>14.56549128550421</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30365,7 +30365,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>14.56549128550344</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30390,19 +30390,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>165.9232676913869</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J40" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30484,25 +30484,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="P41" t="n">
-        <v>116.9787331327009</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>89.73190363910518</v>
@@ -30548,7 +30548,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30636,7 +30636,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>8.144348922868048</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>164.9510727818005</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30718,28 +30718,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>116.9787331327008</v>
-      </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>116.9787331327012</v>
       </c>
       <c r="R44" t="n">
         <v>89.73190363910518</v>
@@ -30779,7 +30779,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>14.56549128550347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30870,10 +30870,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I46" t="n">
-        <v>166.1290651424569</v>
+        <v>162.9939828386722</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>23.31756564084461</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S46" t="n">
         <v>166.1290651424569</v>
@@ -34708,13 +34708,13 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>382.1528875633492</v>
+        <v>280.0453754277967</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>128.3539994362195</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
         <v>95.38611483488586</v>
@@ -34784,10 +34784,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>321.5125729389268</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>499.515844883818</v>
+        <v>490.4610201210949</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,10 +34945,10 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>382.1528875633492</v>
+        <v>280.0453754277972</v>
       </c>
       <c r="O5" t="n">
-        <v>205.9779267258972</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>196.8942089754303</v>
+        <v>499.5158448838179</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35033,7 +35033,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>55.31479735285173</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>152.0887908554191</v>
       </c>
       <c r="L9" t="n">
-        <v>225.4275451135086</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35267,7 +35267,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
         <v>159.3652826117113</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>182.0272928505217</v>
       </c>
       <c r="K11" t="n">
-        <v>351.8675229232257</v>
+        <v>351.8675229232259</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>506.5127695982815</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>417.3869294162067</v>
+        <v>340.406590663126</v>
       </c>
       <c r="P11" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>147.276853552218</v>
+        <v>204.6876053896443</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>19.56958691565326</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>223.2297601895429</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>89.92362957570191</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.84482435478932</v>
+        <v>49.84482435478944</v>
       </c>
       <c r="K13" t="n">
-        <v>143.2451145392466</v>
+        <v>143.2451145392467</v>
       </c>
       <c r="L13" t="n">
-        <v>210.924803080273</v>
+        <v>210.9248030802731</v>
       </c>
       <c r="M13" t="n">
-        <v>228.4868502796085</v>
+        <v>228.4868502796087</v>
       </c>
       <c r="N13" t="n">
-        <v>228.9200175745567</v>
+        <v>228.9200175745568</v>
       </c>
       <c r="O13" t="n">
-        <v>208.7597193382832</v>
+        <v>208.7597193382834</v>
       </c>
       <c r="P13" t="n">
-        <v>172.9060195730793</v>
+        <v>172.9060195730794</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.14952262191046</v>
+        <v>71.14952262191059</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.0272928505216</v>
+        <v>182.0272928505217</v>
       </c>
       <c r="K14" t="n">
-        <v>351.8675229232257</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
         <v>351.3993667524709</v>
@@ -35656,13 +35656,13 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>434.043626280682</v>
+        <v>434.0436262806797</v>
       </c>
       <c r="O14" t="n">
-        <v>308.0854388614484</v>
+        <v>417.3869294162069</v>
       </c>
       <c r="P14" t="n">
-        <v>339.7630021265293</v>
+        <v>339.7630021265294</v>
       </c>
       <c r="Q14" t="n">
         <v>95.38611483488586</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>223.2297601895429</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>89.92362957570191</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.84482435478932</v>
+        <v>49.84482435478944</v>
       </c>
       <c r="K16" t="n">
-        <v>143.2451145392466</v>
+        <v>143.2451145392467</v>
       </c>
       <c r="L16" t="n">
-        <v>210.924803080273</v>
+        <v>210.9248030802731</v>
       </c>
       <c r="M16" t="n">
-        <v>228.4868502796085</v>
+        <v>228.4868502796087</v>
       </c>
       <c r="N16" t="n">
-        <v>228.9200175745567</v>
+        <v>228.9200175745568</v>
       </c>
       <c r="O16" t="n">
-        <v>208.7597193382832</v>
+        <v>208.7597193382834</v>
       </c>
       <c r="P16" t="n">
-        <v>172.9060195730793</v>
+        <v>172.9060195730794</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.14952262191046</v>
+        <v>71.14952262191059</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>243.392185047593</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35890,10 +35890,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>567.8776617953529</v>
       </c>
       <c r="N17" t="n">
-        <v>510.3472360804025</v>
+        <v>420.615332441296</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
@@ -35902,10 +35902,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>266.0524975867156</v>
       </c>
       <c r="R17" t="n">
-        <v>80.93447911272449</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.92362957570329</v>
+        <v>89.92362957570191</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36033,7 +36033,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>6.699113841652977</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.69911384165259</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>389.8618116304191</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
@@ -36133,13 +36133,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0854388614484</v>
+        <v>346.5478837393951</v>
       </c>
       <c r="P20" t="n">
         <v>401.1278943236006</v>
       </c>
       <c r="Q20" t="n">
-        <v>266.0524975867155</v>
+        <v>266.0524975867156</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>305.147393207775</v>
+        <v>235.7057401717657</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.92362957570329</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36270,7 +36270,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6.699113841652662</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.699113841652935</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>243.392185047593</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>522.0657495043006</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>552.8192703151789</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>478.7518216132781</v>
+        <v>346.5478837393951</v>
       </c>
       <c r="P23" t="n">
-        <v>268.9239564497192</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>223.2297601895429</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36452,7 +36452,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>235.7057401717657</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36510,7 +36510,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>6.699113841652977</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -36537,7 +36537,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.69911384165259</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
-        <v>464.8295322606796</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M26" t="n">
-        <v>510.6414445517319</v>
+        <v>510.6414445517308</v>
       </c>
       <c r="N26" t="n">
-        <v>495.5830530715579</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>421.5156043696571</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8916770799796</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q26" t="n">
-        <v>208.8162803430947</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910349</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823967</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
       </c>
       <c r="L28" t="n">
-        <v>215.0534780337233</v>
+        <v>215.0534780337234</v>
       </c>
       <c r="M28" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N28" t="n">
-        <v>233.048692528007</v>
+        <v>233.0486925280071</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P28" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.2781975753624</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696571</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P29" t="n">
         <v>343.8916770799797</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910353</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -36996,19 +36996,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.039048391886</v>
+        <v>214.0390483918861</v>
       </c>
       <c r="K32" t="n">
-        <v>383.8792784645901</v>
+        <v>383.8792784645902</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>492.7126128485937</v>
       </c>
       <c r="M32" t="n">
-        <v>538.5245251396459</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>523.466133659472</v>
+        <v>453.037388424939</v>
       </c>
       <c r="O32" t="n">
-        <v>449.3986849575712</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P32" t="n">
-        <v>301.346012433362</v>
+        <v>371.7747576678937</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>236.6993609310087</v>
       </c>
       <c r="R32" t="n">
-        <v>51.58134245701754</v>
+        <v>51.58134245701763</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.01867666457039</v>
+        <v>72.01867666456904</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>175.2568700806111</v>
       </c>
       <c r="L34" t="n">
-        <v>242.9365586216374</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
@@ -37239,10 +37239,10 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>240.7714748796477</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>204.9177751144438</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>113.3073739251128</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
@@ -37318,16 +37318,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>347.4402447044718</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
         <v>261.5151799773428</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37455,13 +37455,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>5.215064070152944</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I37" t="n">
         <v>23.36805118910868</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.3795283649642063</v>
       </c>
       <c r="K37" t="n">
         <v>33.9436239844883</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>437.7928506728722</v>
       </c>
       <c r="N38" t="n">
-        <v>499.1316206960502</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M39" t="n">
-        <v>489.93268031336</v>
+        <v>489.9326803133597</v>
       </c>
       <c r="N39" t="n">
         <v>516.4299455789112</v>
@@ -37686,19 +37686,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.14434892286801</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37780,10 +37780,10 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5660323684674</v>
+        <v>359.5447655011686</v>
       </c>
       <c r="L41" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
@@ -37792,13 +37792,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>347.4402447044718</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37917,13 +37917,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>14.58789090194202</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>15.17321671797629</v>
+        <v>15.17321671797626</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37953,13 +37953,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>71.74887794118905</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>16.92450921003499</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K44" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>563.34034418598</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>425.0641719941493</v>
+        <v>474.2145040039053</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675871</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38166,10 +38166,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>8.350146373938003</v>
       </c>
       <c r="I46" t="n">
-        <v>23.36805118910866</v>
+        <v>20.23296888532396</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38190,13 +38190,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
-        <v>86.92209465916561</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.10250157069135</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
